--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 07  JULIO  2021/REPORTE DE ABASTOS  JULIO     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 07  JULIO  2021/REPORTE DE ABASTOS  JULIO     2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2021    " sheetId="1" r:id="rId1"/>
@@ -2406,7 +2406,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2813,6 +2813,22 @@
       <b/>
       <sz val="13"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4639,222 +4655,8 @@
     <xf numFmtId="44" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="13" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="13" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="13" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="13" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="11" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="32" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="32" fillId="9" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="32" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="32" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="32" fillId="9" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="32" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="14" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="14" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="14" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="48" fillId="14" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="48" fillId="14" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="48" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="48" fillId="14" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="14" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="14" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="32" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="9" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4941,18 +4743,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4964,9 +4754,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="16" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5009,13 +4796,7 @@
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5023,28 +4804,10 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="12" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="12" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="7" fontId="32" fillId="17" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="32" fillId="17" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="32" fillId="17" borderId="83" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="32" fillId="17" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5056,33 +4819,6 @@
     </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="48" fillId="17" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="48" fillId="17" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="48" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="48" fillId="17" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5099,6 +4835,286 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="13" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="13" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="13" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="13" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="32" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="32" fillId="9" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="32" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="32" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="32" fillId="9" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="32" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="11" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="32" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="9" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="14" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="14" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="48" fillId="17" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="48" fillId="17" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="48" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="48" fillId="17" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="12" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="12" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="32" fillId="17" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="32" fillId="17" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="32" fillId="17" borderId="83" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="32" fillId="17" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="52" fillId="6" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="52" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="52" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="52" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10568,17 +10584,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
+      <c r="C1" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
@@ -10595,17 +10611,17 @@
       <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="302" t="s">
+      <c r="B3" s="409" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="303"/>
+      <c r="C3" s="410"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="411"/>
       <c r="K3" s="14" t="s">
         <v>4</v>
       </c>
@@ -10625,14 +10641,14 @@
       <c r="D4" s="19">
         <v>44201</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="412" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="307" t="s">
+      <c r="F4" s="413"/>
+      <c r="H4" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="308"/>
+      <c r="I4" s="415"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
@@ -12429,28 +12445,28 @@
       <c r="A64" s="58"/>
       <c r="B64" s="115"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="325" t="s">
+      <c r="H64" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="I64" s="326"/>
+      <c r="I64" s="405"/>
       <c r="J64" s="116"/>
-      <c r="K64" s="327">
+      <c r="K64" s="406">
         <f>I62+L62</f>
         <v>360753.85</v>
       </c>
-      <c r="L64" s="328"/>
-      <c r="M64" s="315">
+      <c r="L64" s="407"/>
+      <c r="M64" s="394">
         <f>M62+N62</f>
         <v>2886514.7</v>
       </c>
-      <c r="N64" s="316"/>
+      <c r="N64" s="395"/>
       <c r="O64" s="187"/>
     </row>
     <row r="65" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="317" t="s">
+      <c r="D65" s="396" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="317"/>
+      <c r="E65" s="396"/>
       <c r="F65" s="117">
         <f>F62-K64-C62</f>
         <v>2365880.5699999998</v>
@@ -12459,22 +12475,22 @@
       <c r="J65" s="119"/>
     </row>
     <row r="66" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D66" s="318" t="s">
+      <c r="D66" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="318"/>
+      <c r="E66" s="397"/>
       <c r="F66" s="114">
         <v>-2276696.6800000002</v>
       </c>
-      <c r="I66" s="319" t="s">
+      <c r="I66" s="398" t="s">
         <v>63</v>
       </c>
-      <c r="J66" s="320"/>
-      <c r="K66" s="321">
+      <c r="J66" s="399"/>
+      <c r="K66" s="400">
         <f>F68+F69+F70</f>
         <v>344253.98999999964</v>
       </c>
-      <c r="L66" s="322"/>
+      <c r="L66" s="401"/>
     </row>
     <row r="67" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="120"/>
@@ -12503,11 +12519,11 @@
         <v>65</v>
       </c>
       <c r="J68" s="127"/>
-      <c r="K68" s="323">
+      <c r="K68" s="402">
         <f>-C4</f>
         <v>-250864.68</v>
       </c>
-      <c r="L68" s="324"/>
+      <c r="L68" s="403"/>
       <c r="M68" s="128"/>
     </row>
     <row r="69" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,22 +12541,22 @@
       <c r="C70" s="130">
         <v>44230</v>
       </c>
-      <c r="D70" s="309" t="s">
+      <c r="D70" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="310"/>
+      <c r="E70" s="389"/>
       <c r="F70" s="131">
         <v>209541.1</v>
       </c>
-      <c r="I70" s="311" t="s">
+      <c r="I70" s="390" t="s">
         <v>69</v>
       </c>
-      <c r="J70" s="312"/>
-      <c r="K70" s="313">
+      <c r="J70" s="391"/>
+      <c r="K70" s="392">
         <f>K66+K68</f>
         <v>93389.309999999648</v>
       </c>
-      <c r="L70" s="314"/>
+      <c r="L70" s="393"/>
     </row>
     <row r="71" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C71" s="132"/>
@@ -12622,6 +12638,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="K70:L70"/>
@@ -12633,11 +12654,6 @@
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.52" right="0.15748031496062992" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13949,8 +13965,8 @@
   </sheetPr>
   <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="N13" workbookViewId="0">
+      <selection activeCell="S33" sqref="S32:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13979,25 +13995,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="366" t="s">
+      <c r="B1" s="437" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="301" t="s">
+      <c r="C1" s="408" t="s">
         <v>474</v>
       </c>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="367"/>
+      <c r="B2" s="438"/>
       <c r="C2" s="5"/>
       <c r="H2" s="7" t="s">
         <v>1</v>
@@ -14007,27 +14023,27 @@
       <c r="L2" s="9"/>
       <c r="M2" s="3"/>
       <c r="N2" s="10"/>
-      <c r="R2" s="368" t="s">
+      <c r="R2" s="433" t="s">
         <v>475</v>
       </c>
-      <c r="S2" s="368"/>
-      <c r="T2" s="368"/>
-      <c r="U2" s="368"/>
-      <c r="V2" s="368"/>
-      <c r="W2" s="368"/>
+      <c r="S2" s="433"/>
+      <c r="T2" s="433"/>
+      <c r="U2" s="433"/>
+      <c r="V2" s="433"/>
+      <c r="W2" s="433"/>
     </row>
     <row r="3" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="302" t="s">
+      <c r="B3" s="409" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="303"/>
+      <c r="C3" s="410"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="411"/>
       <c r="K3" s="14" t="s">
         <v>4</v>
       </c>
@@ -14035,12 +14051,12 @@
         <v>5</v>
       </c>
       <c r="M3" s="15"/>
-      <c r="R3" s="368"/>
-      <c r="S3" s="368"/>
-      <c r="T3" s="368"/>
-      <c r="U3" s="368"/>
-      <c r="V3" s="368"/>
-      <c r="W3" s="368"/>
+      <c r="R3" s="433"/>
+      <c r="S3" s="433"/>
+      <c r="T3" s="433"/>
+      <c r="U3" s="433"/>
+      <c r="V3" s="433"/>
+      <c r="W3" s="433"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
@@ -14053,14 +14069,14 @@
       <c r="D4" s="19">
         <v>44353</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="412" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="307" t="s">
+      <c r="F4" s="413"/>
+      <c r="H4" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="308"/>
+      <c r="I4" s="415"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
@@ -14072,16 +14088,16 @@
       </c>
       <c r="O4" s="246"/>
       <c r="Q4" s="168"/>
-      <c r="R4" s="369" t="s">
+      <c r="R4" s="434" t="s">
         <v>476</v>
       </c>
-      <c r="S4" s="370"/>
+      <c r="S4" s="435"/>
       <c r="T4" s="247"/>
-      <c r="U4" s="371" t="s">
+      <c r="U4" s="436" t="s">
         <v>477</v>
       </c>
-      <c r="V4" s="371"/>
-      <c r="W4" s="371"/>
+      <c r="V4" s="436"/>
+      <c r="W4" s="436"/>
       <c r="X4" s="247"/>
     </row>
     <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15086,10 +15102,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="247"/>
-      <c r="U23" s="354" t="s">
+      <c r="U23" s="439" t="s">
         <v>497</v>
       </c>
-      <c r="V23" s="355"/>
+      <c r="V23" s="440"/>
       <c r="W23" s="264">
         <f>SUM(W6:W22)</f>
         <v>2323600</v>
@@ -15191,11 +15207,11 @@
         <v>138607</v>
       </c>
       <c r="T25" s="247"/>
-      <c r="U25" s="356" t="s">
+      <c r="U25" s="476" t="s">
         <v>500</v>
       </c>
-      <c r="V25" s="357"/>
-      <c r="W25" s="360">
+      <c r="V25" s="477"/>
+      <c r="W25" s="480">
         <f>S29-W23</f>
         <v>163726</v>
       </c>
@@ -15242,9 +15258,9 @@
         <v>107480</v>
       </c>
       <c r="T26" s="247"/>
-      <c r="U26" s="358"/>
-      <c r="V26" s="359"/>
-      <c r="W26" s="361"/>
+      <c r="U26" s="478"/>
+      <c r="V26" s="479"/>
+      <c r="W26" s="481"/>
       <c r="X26" s="247"/>
     </row>
     <row r="27" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15365,10 +15381,10 @@
       </c>
       <c r="O29" s="141"/>
       <c r="Q29" s="168"/>
-      <c r="R29" s="362" t="s">
+      <c r="R29" s="441" t="s">
         <v>503</v>
       </c>
-      <c r="S29" s="364">
+      <c r="S29" s="443">
         <f>SUM(S5:S28)</f>
         <v>2487326</v>
       </c>
@@ -15405,8 +15421,8 @@
       </c>
       <c r="O30" s="141"/>
       <c r="Q30" s="272"/>
-      <c r="R30" s="363"/>
-      <c r="S30" s="365"/>
+      <c r="R30" s="442"/>
+      <c r="S30" s="444"/>
       <c r="T30" s="247"/>
       <c r="U30" s="247"/>
       <c r="V30" s="247"/>
@@ -16297,28 +16313,28 @@
       <c r="A64" s="58"/>
       <c r="B64" s="115"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="325" t="s">
+      <c r="H64" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="I64" s="326"/>
+      <c r="I64" s="405"/>
       <c r="J64" s="116"/>
-      <c r="K64" s="327">
+      <c r="K64" s="406">
         <f>I62+L62</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L64" s="328"/>
-      <c r="M64" s="315">
+      <c r="L64" s="407"/>
+      <c r="M64" s="394">
         <f>M62+N62</f>
         <v>2936130</v>
       </c>
-      <c r="N64" s="316"/>
+      <c r="N64" s="395"/>
       <c r="O64" s="288"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D65" s="317" t="s">
+      <c r="D65" s="396" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="317"/>
+      <c r="E65" s="396"/>
       <c r="F65" s="117">
         <f>F62-K64-C62</f>
         <v>2702101.7199999997</v>
@@ -16327,22 +16343,22 @@
       <c r="J65" s="119"/>
     </row>
     <row r="66" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D66" s="318" t="s">
+      <c r="D66" s="397" t="s">
         <v>429</v>
       </c>
-      <c r="E66" s="318"/>
+      <c r="E66" s="397"/>
       <c r="F66" s="114">
         <v>-2720820.95</v>
       </c>
-      <c r="I66" s="319" t="s">
+      <c r="I66" s="398" t="s">
         <v>63</v>
       </c>
-      <c r="J66" s="320"/>
-      <c r="K66" s="321">
+      <c r="J66" s="399"/>
+      <c r="K66" s="400">
         <f>F68+F69+F70</f>
         <v>381077.72999999952</v>
       </c>
-      <c r="L66" s="322"/>
+      <c r="L66" s="401"/>
     </row>
     <row r="67" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="120"/>
@@ -16371,11 +16387,11 @@
         <v>65</v>
       </c>
       <c r="J68" s="127"/>
-      <c r="K68" s="323">
+      <c r="K68" s="402">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L68" s="324"/>
+      <c r="L68" s="403"/>
       <c r="M68" s="128"/>
     </row>
     <row r="69" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16393,22 +16409,22 @@
       <c r="C70" s="130">
         <v>44377</v>
       </c>
-      <c r="D70" s="309" t="s">
+      <c r="D70" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="310"/>
+      <c r="E70" s="389"/>
       <c r="F70" s="131">
         <v>308642.71999999997</v>
       </c>
-      <c r="I70" s="311" t="s">
+      <c r="I70" s="390" t="s">
         <v>69</v>
       </c>
-      <c r="J70" s="312"/>
-      <c r="K70" s="313">
+      <c r="J70" s="391"/>
+      <c r="K70" s="392">
         <f>K66+K68</f>
         <v>125313.3399999995</v>
       </c>
-      <c r="L70" s="314"/>
+      <c r="L70" s="393"/>
     </row>
     <row r="71" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C71" s="132"/>
@@ -16419,24 +16435,24 @@
       <c r="M71" s="137"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I72" s="346" t="s">
+      <c r="I72" s="468" t="s">
         <v>547</v>
       </c>
-      <c r="J72" s="347"/>
-      <c r="K72" s="350">
+      <c r="J72" s="469"/>
+      <c r="K72" s="472">
         <v>163726</v>
       </c>
-      <c r="L72" s="351"/>
+      <c r="L72" s="473"/>
     </row>
     <row r="73" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="138"/>
       <c r="C73" s="139"/>
       <c r="D73" s="140"/>
       <c r="E73" s="141"/>
-      <c r="I73" s="348"/>
-      <c r="J73" s="349"/>
-      <c r="K73" s="352"/>
-      <c r="L73" s="353"/>
+      <c r="I73" s="470"/>
+      <c r="J73" s="471"/>
+      <c r="K73" s="474"/>
+      <c r="L73" s="475"/>
       <c r="M73" s="2"/>
       <c r="N73" s="58"/>
       <c r="O73" s="58"/>
@@ -16540,6 +16556,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="I72:J73"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S29:S30"/>
     <mergeCell ref="R2:W3"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="U4:W4"/>
@@ -16549,24 +16583,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="I72:J73"/>
-    <mergeCell ref="K72:L73"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17887,7 +17903,7 @@
     <col min="6" max="6" width="17.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="373" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="302" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
     <col min="13" max="13" width="18.140625" style="6" customWidth="1"/>
@@ -17895,47 +17911,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="366" t="s">
+      <c r="B1" s="437" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="301" t="s">
+      <c r="C1" s="408" t="s">
         <v>548</v>
       </c>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="367"/>
+      <c r="B2" s="438"/>
       <c r="C2" s="5"/>
       <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="372"/>
+      <c r="J2" s="301"/>
       <c r="L2" s="9"/>
       <c r="M2" s="3"/>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="302" t="s">
+      <c r="B3" s="409" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="303"/>
+      <c r="C3" s="410"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="411"/>
       <c r="K3" s="14" t="s">
         <v>4</v>
       </c>
@@ -17955,14 +17971,14 @@
       <c r="D4" s="19">
         <v>44377</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="412" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="374" t="s">
+      <c r="F4" s="413"/>
+      <c r="H4" s="467" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="308"/>
+      <c r="I4" s="415"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
@@ -17977,63 +17993,63 @@
       <c r="A5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="375">
+      <c r="B5" s="303">
         <v>44378</v>
       </c>
       <c r="C5" s="27">
         <v>4932.5</v>
       </c>
-      <c r="D5" s="376" t="s">
+      <c r="D5" s="304" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="377">
+      <c r="E5" s="305">
         <v>44378</v>
       </c>
       <c r="F5" s="30">
         <v>142964</v>
       </c>
-      <c r="G5" s="378"/>
-      <c r="H5" s="379">
+      <c r="G5" s="306"/>
+      <c r="H5" s="307">
         <v>44378</v>
       </c>
       <c r="I5" s="32">
         <v>550</v>
       </c>
-      <c r="J5" s="372">
+      <c r="J5" s="301">
         <v>44378</v>
       </c>
-      <c r="K5" s="380" t="s">
+      <c r="K5" s="308" t="s">
         <v>401</v>
       </c>
       <c r="L5" s="10">
         <v>549</v>
       </c>
-      <c r="M5" s="381">
+      <c r="M5" s="309">
         <v>126476.5</v>
       </c>
-      <c r="N5" s="382">
+      <c r="N5" s="310">
         <v>10456</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25"/>
-      <c r="B6" s="375">
+      <c r="B6" s="303">
         <v>44379</v>
       </c>
       <c r="C6" s="27">
         <v>20774</v>
       </c>
-      <c r="D6" s="383" t="s">
+      <c r="D6" s="311" t="s">
         <v>550</v>
       </c>
-      <c r="E6" s="377">
+      <c r="E6" s="305">
         <v>44379</v>
       </c>
       <c r="F6" s="30">
         <v>115376</v>
       </c>
-      <c r="G6" s="378"/>
-      <c r="H6" s="384">
+      <c r="G6" s="306"/>
+      <c r="H6" s="312">
         <v>44379</v>
       </c>
       <c r="I6" s="38">
@@ -18042,38 +18058,38 @@
       <c r="J6" s="48">
         <v>44379</v>
       </c>
-      <c r="K6" s="385" t="s">
+      <c r="K6" s="313" t="s">
         <v>551</v>
       </c>
       <c r="L6" s="41">
         <v>10000</v>
       </c>
-      <c r="M6" s="381">
+      <c r="M6" s="309">
         <v>121188</v>
       </c>
-      <c r="N6" s="382">
+      <c r="N6" s="310">
         <v>43064</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25"/>
-      <c r="B7" s="375">
+      <c r="B7" s="303">
         <v>44380</v>
       </c>
       <c r="C7" s="27">
         <v>2495</v>
       </c>
-      <c r="D7" s="386" t="s">
+      <c r="D7" s="314" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="377">
+      <c r="E7" s="305">
         <v>44380</v>
       </c>
       <c r="F7" s="30">
         <v>192558</v>
       </c>
-      <c r="G7" s="378"/>
-      <c r="H7" s="384">
+      <c r="G7" s="306"/>
+      <c r="H7" s="312">
         <v>44380</v>
       </c>
       <c r="I7" s="43">
@@ -18082,142 +18098,142 @@
       <c r="J7" s="48">
         <v>44380</v>
       </c>
-      <c r="K7" s="387" t="s">
+      <c r="K7" s="315" t="s">
         <v>552</v>
       </c>
       <c r="L7" s="41">
         <f>16330.7+400+4000</f>
         <v>20730.7</v>
       </c>
-      <c r="M7" s="381">
+      <c r="M7" s="309">
         <v>117804.68</v>
       </c>
-      <c r="N7" s="382">
+      <c r="N7" s="310">
         <v>61735</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
-      <c r="B8" s="375">
+      <c r="B8" s="303">
         <v>44381</v>
       </c>
       <c r="C8" s="27">
         <v>7764</v>
       </c>
-      <c r="D8" s="388" t="s">
+      <c r="D8" s="316" t="s">
         <v>553</v>
       </c>
-      <c r="E8" s="377">
+      <c r="E8" s="305">
         <v>44381</v>
       </c>
       <c r="F8" s="30">
         <v>140754</v>
       </c>
-      <c r="G8" s="378"/>
-      <c r="H8" s="384">
+      <c r="G8" s="306"/>
+      <c r="H8" s="312">
         <v>44381</v>
       </c>
       <c r="I8" s="43">
         <v>700</v>
       </c>
       <c r="J8" s="225"/>
-      <c r="K8" s="389"/>
+      <c r="K8" s="317"/>
       <c r="L8" s="41"/>
-      <c r="M8" s="381">
+      <c r="M8" s="309">
         <v>112352</v>
       </c>
-      <c r="N8" s="390">
+      <c r="N8" s="318">
         <f>19938+722.5</f>
         <v>20660.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
-      <c r="B9" s="375">
+      <c r="B9" s="303">
         <v>44382</v>
       </c>
       <c r="C9" s="27">
         <v>2850</v>
       </c>
-      <c r="D9" s="388" t="s">
+      <c r="D9" s="316" t="s">
         <v>554</v>
       </c>
-      <c r="E9" s="377">
+      <c r="E9" s="305">
         <v>44382</v>
       </c>
       <c r="F9" s="30">
         <v>125766</v>
       </c>
-      <c r="G9" s="378"/>
-      <c r="H9" s="384">
+      <c r="G9" s="306"/>
+      <c r="H9" s="312">
         <v>44382</v>
       </c>
       <c r="I9" s="43">
         <v>584</v>
       </c>
       <c r="J9" s="48"/>
-      <c r="K9" s="391"/>
+      <c r="K9" s="319"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="381">
+      <c r="M9" s="309">
         <v>100005</v>
       </c>
-      <c r="N9" s="382">
+      <c r="N9" s="310">
         <v>22327</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
-      <c r="B10" s="375">
+      <c r="B10" s="303">
         <v>44383</v>
       </c>
       <c r="C10" s="27">
         <v>4901</v>
       </c>
-      <c r="D10" s="386" t="s">
+      <c r="D10" s="314" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="377">
+      <c r="E10" s="305">
         <v>44383</v>
       </c>
       <c r="F10" s="30">
         <v>129286</v>
       </c>
-      <c r="G10" s="378"/>
-      <c r="H10" s="384">
+      <c r="G10" s="306"/>
+      <c r="H10" s="312">
         <v>44383</v>
       </c>
       <c r="I10" s="43">
         <v>650</v>
       </c>
       <c r="J10" s="48"/>
-      <c r="K10" s="392"/>
+      <c r="K10" s="320"/>
       <c r="L10" s="51"/>
-      <c r="M10" s="381">
+      <c r="M10" s="309">
         <v>89170</v>
       </c>
-      <c r="N10" s="382">
+      <c r="N10" s="310">
         <v>34565</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="375">
+      <c r="B11" s="303">
         <v>44384</v>
       </c>
       <c r="C11" s="27">
         <v>2612</v>
       </c>
-      <c r="D11" s="383" t="s">
+      <c r="D11" s="311" t="s">
         <v>305</v>
       </c>
-      <c r="E11" s="377">
+      <c r="E11" s="305">
         <v>44384</v>
       </c>
       <c r="F11" s="30">
         <v>126869</v>
       </c>
-      <c r="G11" s="378"/>
-      <c r="H11" s="384">
+      <c r="G11" s="306"/>
+      <c r="H11" s="312">
         <v>44384</v>
       </c>
       <c r="I11" s="43">
@@ -18226,73 +18242,73 @@
       <c r="J11" s="226">
         <v>44384</v>
       </c>
-      <c r="K11" s="393" t="s">
+      <c r="K11" s="321" t="s">
         <v>555</v>
       </c>
       <c r="L11" s="41">
         <v>7950</v>
       </c>
-      <c r="M11" s="381">
+      <c r="M11" s="309">
         <v>60712</v>
       </c>
-      <c r="N11" s="382">
+      <c r="N11" s="310">
         <v>53011</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
-      <c r="B12" s="375">
+      <c r="B12" s="303">
         <v>44385</v>
       </c>
       <c r="C12" s="27">
         <v>12686</v>
       </c>
-      <c r="D12" s="383" t="s">
+      <c r="D12" s="311" t="s">
         <v>556</v>
       </c>
-      <c r="E12" s="377">
+      <c r="E12" s="305">
         <v>44385</v>
       </c>
       <c r="F12" s="30">
         <v>108652</v>
       </c>
-      <c r="G12" s="378"/>
-      <c r="H12" s="384">
+      <c r="G12" s="306"/>
+      <c r="H12" s="312">
         <v>44385</v>
       </c>
       <c r="I12" s="4">
         <v>3911</v>
       </c>
       <c r="J12" s="48"/>
-      <c r="K12" s="394"/>
+      <c r="K12" s="322"/>
       <c r="L12" s="41"/>
-      <c r="M12" s="381">
+      <c r="M12" s="309">
         <v>62018</v>
       </c>
-      <c r="N12" s="390">
+      <c r="N12" s="318">
         <f>29872+165</f>
         <v>30037</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
-      <c r="B13" s="375">
+      <c r="B13" s="303">
         <v>44386</v>
       </c>
       <c r="C13" s="27">
         <v>9887</v>
       </c>
-      <c r="D13" s="388" t="s">
+      <c r="D13" s="316" t="s">
         <v>557</v>
       </c>
-      <c r="E13" s="377">
+      <c r="E13" s="305">
         <v>44386</v>
       </c>
       <c r="F13" s="30">
         <v>161069</v>
       </c>
-      <c r="G13" s="378"/>
-      <c r="H13" s="384">
+      <c r="G13" s="306"/>
+      <c r="H13" s="312">
         <v>44386</v>
       </c>
       <c r="I13" s="43">
@@ -18301,39 +18317,39 @@
       <c r="J13" s="48">
         <v>44386</v>
       </c>
-      <c r="K13" s="387" t="s">
+      <c r="K13" s="315" t="s">
         <v>551</v>
       </c>
       <c r="L13" s="41">
         <v>10000</v>
       </c>
-      <c r="M13" s="381">
+      <c r="M13" s="309">
         <v>105176</v>
       </c>
-      <c r="N13" s="390">
+      <c r="N13" s="318">
         <f>28270+3975</f>
         <v>32245</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
-      <c r="B14" s="375">
+      <c r="B14" s="303">
         <v>44387</v>
       </c>
       <c r="C14" s="27">
         <v>2815</v>
       </c>
-      <c r="D14" s="386" t="s">
+      <c r="D14" s="314" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="377">
+      <c r="E14" s="305">
         <v>44387</v>
       </c>
       <c r="F14" s="30">
         <v>220829</v>
       </c>
-      <c r="G14" s="378"/>
-      <c r="H14" s="384">
+      <c r="G14" s="306"/>
+      <c r="H14" s="312">
         <v>44387</v>
       </c>
       <c r="I14" s="43">
@@ -18342,142 +18358,142 @@
       <c r="J14" s="48">
         <v>44387</v>
       </c>
-      <c r="K14" s="389" t="s">
+      <c r="K14" s="317" t="s">
         <v>558</v>
       </c>
       <c r="L14" s="41">
         <f>21785.63+400+1612.93</f>
         <v>23798.560000000001</v>
       </c>
-      <c r="M14" s="381">
+      <c r="M14" s="309">
         <v>121085.38</v>
       </c>
-      <c r="N14" s="382">
+      <c r="N14" s="310">
         <v>76989</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
-      <c r="B15" s="375">
+      <c r="B15" s="303">
         <v>44388</v>
       </c>
       <c r="C15" s="27">
         <v>11165</v>
       </c>
-      <c r="D15" s="383" t="s">
+      <c r="D15" s="311" t="s">
         <v>559</v>
       </c>
-      <c r="E15" s="377">
+      <c r="E15" s="305">
         <v>44388</v>
       </c>
       <c r="F15" s="30">
         <v>146396</v>
       </c>
-      <c r="G15" s="378"/>
-      <c r="H15" s="384">
+      <c r="G15" s="306"/>
+      <c r="H15" s="312">
         <v>44388</v>
       </c>
       <c r="I15" s="43">
         <v>725</v>
       </c>
       <c r="J15" s="48"/>
-      <c r="K15" s="389"/>
+      <c r="K15" s="317"/>
       <c r="L15" s="41"/>
-      <c r="M15" s="381">
+      <c r="M15" s="309">
         <v>107856</v>
       </c>
-      <c r="N15" s="382">
+      <c r="N15" s="310">
         <f>30266</f>
         <v>30266</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
-      <c r="B16" s="375">
+      <c r="B16" s="303">
         <v>44389</v>
       </c>
       <c r="C16" s="27">
         <v>1605</v>
       </c>
-      <c r="D16" s="383" t="s">
+      <c r="D16" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="377">
+      <c r="E16" s="305">
         <v>44389</v>
       </c>
       <c r="F16" s="30">
         <v>128484</v>
       </c>
-      <c r="G16" s="378"/>
-      <c r="H16" s="384">
+      <c r="G16" s="306"/>
+      <c r="H16" s="312">
         <v>44389</v>
       </c>
       <c r="I16" s="43">
         <v>1120</v>
       </c>
       <c r="J16" s="48"/>
-      <c r="K16" s="389"/>
+      <c r="K16" s="317"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="381">
+      <c r="M16" s="309">
         <v>102720</v>
       </c>
-      <c r="N16" s="382">
+      <c r="N16" s="310">
         <v>23039</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
-      <c r="B17" s="375">
+      <c r="B17" s="303">
         <v>44390</v>
       </c>
       <c r="C17" s="27">
         <v>9760</v>
       </c>
-      <c r="D17" s="388" t="s">
+      <c r="D17" s="316" t="s">
         <v>560</v>
       </c>
-      <c r="E17" s="377">
+      <c r="E17" s="305">
         <v>44390</v>
       </c>
       <c r="F17" s="30">
         <v>94323</v>
       </c>
-      <c r="G17" s="378"/>
-      <c r="H17" s="384">
+      <c r="G17" s="306"/>
+      <c r="H17" s="312">
         <v>44390</v>
       </c>
       <c r="I17" s="43">
         <v>1348</v>
       </c>
       <c r="J17" s="48"/>
-      <c r="K17" s="389"/>
+      <c r="K17" s="317"/>
       <c r="L17" s="51"/>
-      <c r="M17" s="381">
+      <c r="M17" s="309">
         <v>72351</v>
       </c>
-      <c r="N17" s="382">
+      <c r="N17" s="310">
         <v>10864</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>
-      <c r="B18" s="375">
+      <c r="B18" s="303">
         <v>44391</v>
       </c>
       <c r="C18" s="27">
         <v>3434</v>
       </c>
-      <c r="D18" s="383" t="s">
+      <c r="D18" s="311" t="s">
         <v>561</v>
       </c>
-      <c r="E18" s="377">
+      <c r="E18" s="305">
         <v>44391</v>
       </c>
       <c r="F18" s="30">
         <v>89928</v>
       </c>
-      <c r="G18" s="378"/>
-      <c r="H18" s="384">
+      <c r="G18" s="306"/>
+      <c r="H18" s="312">
         <v>44391</v>
       </c>
       <c r="I18" s="43">
@@ -18486,73 +18502,73 @@
       <c r="J18" s="48">
         <v>44391</v>
       </c>
-      <c r="K18" s="395" t="s">
+      <c r="K18" s="323" t="s">
         <v>562</v>
       </c>
       <c r="L18" s="41">
         <v>5000</v>
       </c>
-      <c r="M18" s="381">
+      <c r="M18" s="309">
         <v>59954</v>
       </c>
-      <c r="N18" s="382">
+      <c r="N18" s="310">
         <v>18445</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
-      <c r="B19" s="375">
+      <c r="B19" s="303">
         <v>44392</v>
       </c>
       <c r="C19" s="27">
         <v>15895</v>
       </c>
-      <c r="D19" s="383" t="s">
+      <c r="D19" s="311" t="s">
         <v>563</v>
       </c>
-      <c r="E19" s="377">
+      <c r="E19" s="305">
         <v>44392</v>
       </c>
       <c r="F19" s="30">
         <v>168792</v>
       </c>
-      <c r="G19" s="378"/>
-      <c r="H19" s="384">
+      <c r="G19" s="306"/>
+      <c r="H19" s="312">
         <v>44392</v>
       </c>
       <c r="I19" s="43">
         <v>1150</v>
       </c>
       <c r="J19" s="48"/>
-      <c r="K19" s="396"/>
+      <c r="K19" s="324"/>
       <c r="L19" s="56"/>
-      <c r="M19" s="381">
+      <c r="M19" s="309">
         <v>126617</v>
       </c>
-      <c r="N19" s="390">
+      <c r="N19" s="318">
         <f>6334+120+18676</f>
         <v>25130</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25"/>
-      <c r="B20" s="375">
+      <c r="B20" s="303">
         <v>44393</v>
       </c>
       <c r="C20" s="27">
         <v>1677</v>
       </c>
-      <c r="D20" s="383" t="s">
+      <c r="D20" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="377">
+      <c r="E20" s="305">
         <v>44393</v>
       </c>
       <c r="F20" s="30">
         <v>166269</v>
       </c>
-      <c r="G20" s="378"/>
-      <c r="H20" s="384">
+      <c r="G20" s="306"/>
+      <c r="H20" s="312">
         <v>44393</v>
       </c>
       <c r="I20" s="43">
@@ -18561,38 +18577,38 @@
       <c r="J20" s="48">
         <v>44393</v>
       </c>
-      <c r="K20" s="397" t="s">
+      <c r="K20" s="325" t="s">
         <v>551</v>
       </c>
       <c r="L20" s="51">
         <v>10000</v>
       </c>
-      <c r="M20" s="381">
+      <c r="M20" s="309">
         <v>143221</v>
       </c>
-      <c r="N20" s="382">
+      <c r="N20" s="310">
         <v>10616</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
-      <c r="B21" s="375">
+      <c r="B21" s="303">
         <v>44394</v>
       </c>
       <c r="C21" s="27">
         <v>5961</v>
       </c>
-      <c r="D21" s="383" t="s">
+      <c r="D21" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="377">
+      <c r="E21" s="305">
         <v>44394</v>
       </c>
       <c r="F21" s="30">
         <v>240837</v>
       </c>
-      <c r="G21" s="378"/>
-      <c r="H21" s="384">
+      <c r="G21" s="306"/>
+      <c r="H21" s="312">
         <v>44394</v>
       </c>
       <c r="I21" s="43">
@@ -18601,73 +18617,73 @@
       <c r="J21" s="48">
         <v>44394</v>
       </c>
-      <c r="K21" s="398" t="s">
+      <c r="K21" s="326" t="s">
         <v>564</v>
       </c>
       <c r="L21" s="51">
         <f>19755.82+400</f>
         <v>20155.82</v>
       </c>
-      <c r="M21" s="381">
+      <c r="M21" s="309">
         <v>196142</v>
       </c>
-      <c r="N21" s="382">
+      <c r="N21" s="310">
         <v>21841</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
-      <c r="B22" s="375">
+      <c r="B22" s="303">
         <v>44395</v>
       </c>
       <c r="C22" s="27">
         <v>13103</v>
       </c>
-      <c r="D22" s="383" t="s">
+      <c r="D22" s="311" t="s">
         <v>565</v>
       </c>
-      <c r="E22" s="377">
+      <c r="E22" s="305">
         <v>44395</v>
       </c>
       <c r="F22" s="30">
         <v>131830</v>
       </c>
-      <c r="G22" s="378"/>
-      <c r="H22" s="384">
+      <c r="G22" s="306"/>
+      <c r="H22" s="312">
         <v>44395</v>
       </c>
       <c r="I22" s="43">
         <v>780</v>
       </c>
       <c r="J22" s="48"/>
-      <c r="K22" s="399"/>
+      <c r="K22" s="327"/>
       <c r="L22" s="59"/>
-      <c r="M22" s="381">
+      <c r="M22" s="309">
         <v>107487</v>
       </c>
-      <c r="N22" s="382">
+      <c r="N22" s="310">
         <v>10460</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
-      <c r="B23" s="375">
+      <c r="B23" s="303">
         <v>44396</v>
       </c>
       <c r="C23" s="27">
         <v>12998</v>
       </c>
-      <c r="D23" s="383" t="s">
+      <c r="D23" s="311" t="s">
         <v>566</v>
       </c>
-      <c r="E23" s="377">
+      <c r="E23" s="305">
         <v>44396</v>
       </c>
       <c r="F23" s="30">
         <v>134816</v>
       </c>
-      <c r="G23" s="378"/>
-      <c r="H23" s="384">
+      <c r="G23" s="306"/>
+      <c r="H23" s="312">
         <v>44396</v>
       </c>
       <c r="I23" s="43">
@@ -18676,142 +18692,142 @@
       <c r="J23" s="227">
         <v>44396</v>
       </c>
-      <c r="K23" s="400" t="s">
+      <c r="K23" s="328" t="s">
         <v>567</v>
       </c>
       <c r="L23" s="51">
         <v>7219.18</v>
       </c>
-      <c r="M23" s="381">
+      <c r="M23" s="309">
         <v>106168.82</v>
       </c>
-      <c r="N23" s="390">
+      <c r="N23" s="318">
         <f>1512+6398</f>
         <v>7910</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25"/>
-      <c r="B24" s="375">
+      <c r="B24" s="303">
         <v>44397</v>
       </c>
       <c r="C24" s="27">
         <v>4367</v>
       </c>
-      <c r="D24" s="383" t="s">
+      <c r="D24" s="311" t="s">
         <v>568</v>
       </c>
-      <c r="E24" s="377">
+      <c r="E24" s="305">
         <v>44397</v>
       </c>
       <c r="F24" s="30">
         <v>110569</v>
       </c>
-      <c r="G24" s="378"/>
-      <c r="H24" s="384">
+      <c r="G24" s="306"/>
+      <c r="H24" s="312">
         <v>44397</v>
       </c>
       <c r="I24" s="43">
         <v>750</v>
       </c>
-      <c r="J24" s="401"/>
-      <c r="K24" s="402"/>
+      <c r="J24" s="329"/>
+      <c r="K24" s="330"/>
       <c r="L24" s="230"/>
-      <c r="M24" s="381">
+      <c r="M24" s="309">
         <v>98612</v>
       </c>
-      <c r="N24" s="382">
+      <c r="N24" s="310">
         <v>6840</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25"/>
-      <c r="B25" s="375">
+      <c r="B25" s="303">
         <v>44398</v>
       </c>
       <c r="C25" s="27">
         <v>3514</v>
       </c>
-      <c r="D25" s="383" t="s">
+      <c r="D25" s="311" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="377">
+      <c r="E25" s="305">
         <v>44398</v>
       </c>
       <c r="F25" s="30">
         <v>141045</v>
       </c>
-      <c r="G25" s="378"/>
-      <c r="H25" s="384">
+      <c r="G25" s="306"/>
+      <c r="H25" s="312">
         <v>44398</v>
       </c>
       <c r="I25" s="43">
         <v>2440</v>
       </c>
       <c r="J25" s="231"/>
-      <c r="K25" s="403"/>
+      <c r="K25" s="331"/>
       <c r="L25" s="89"/>
-      <c r="M25" s="381">
+      <c r="M25" s="309">
         <v>132205</v>
       </c>
-      <c r="N25" s="382">
+      <c r="N25" s="310">
         <v>4843</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25"/>
-      <c r="B26" s="375">
+      <c r="B26" s="303">
         <v>44399</v>
       </c>
       <c r="C26" s="27">
         <v>12316</v>
       </c>
-      <c r="D26" s="383" t="s">
+      <c r="D26" s="311" t="s">
         <v>569</v>
       </c>
-      <c r="E26" s="377">
+      <c r="E26" s="305">
         <v>44399</v>
       </c>
       <c r="F26" s="30">
         <v>117571</v>
       </c>
-      <c r="G26" s="378"/>
-      <c r="H26" s="384">
+      <c r="G26" s="306"/>
+      <c r="H26" s="312">
         <v>44399</v>
       </c>
       <c r="I26" s="43">
         <v>5239</v>
       </c>
       <c r="J26" s="48"/>
-      <c r="K26" s="402"/>
+      <c r="K26" s="330"/>
       <c r="L26" s="51"/>
-      <c r="M26" s="381">
+      <c r="M26" s="309">
         <v>77581</v>
       </c>
-      <c r="N26" s="390">
+      <c r="N26" s="318">
         <f>8000+14435</f>
         <v>22435</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
-      <c r="B27" s="375">
+      <c r="B27" s="303">
         <v>44400</v>
       </c>
       <c r="C27" s="27">
         <v>4891</v>
       </c>
-      <c r="D27" s="388" t="s">
+      <c r="D27" s="316" t="s">
         <v>570</v>
       </c>
-      <c r="E27" s="377">
+      <c r="E27" s="305">
         <v>44400</v>
       </c>
       <c r="F27" s="30">
         <v>180617</v>
       </c>
-      <c r="G27" s="378"/>
-      <c r="H27" s="384">
+      <c r="G27" s="306"/>
+      <c r="H27" s="312">
         <v>44400</v>
       </c>
       <c r="I27" s="43">
@@ -18820,38 +18836,38 @@
       <c r="J27" s="232">
         <v>44400</v>
       </c>
-      <c r="K27" s="404" t="s">
+      <c r="K27" s="332" t="s">
         <v>551</v>
       </c>
       <c r="L27" s="89">
         <v>10000</v>
       </c>
-      <c r="M27" s="381">
+      <c r="M27" s="309">
         <v>158574</v>
       </c>
-      <c r="N27" s="382">
+      <c r="N27" s="310">
         <v>6232</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25"/>
-      <c r="B28" s="375">
+      <c r="B28" s="303">
         <v>44401</v>
       </c>
       <c r="C28" s="27">
         <v>5163</v>
       </c>
-      <c r="D28" s="388" t="s">
+      <c r="D28" s="316" t="s">
         <v>571</v>
       </c>
-      <c r="E28" s="377">
+      <c r="E28" s="305">
         <v>44401</v>
       </c>
       <c r="F28" s="30">
         <v>262580</v>
       </c>
-      <c r="G28" s="378"/>
-      <c r="H28" s="384">
+      <c r="G28" s="306"/>
+      <c r="H28" s="312">
         <v>44401</v>
       </c>
       <c r="I28" s="43">
@@ -18860,210 +18876,210 @@
       <c r="J28" s="233">
         <v>44401</v>
       </c>
-      <c r="K28" s="385" t="s">
+      <c r="K28" s="313" t="s">
         <v>572</v>
       </c>
       <c r="L28" s="89">
         <f>23312.72+400</f>
         <v>23712.720000000001</v>
       </c>
-      <c r="M28" s="381">
+      <c r="M28" s="309">
         <v>232014.24</v>
       </c>
-      <c r="N28" s="382">
+      <c r="N28" s="310">
         <v>7988</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25"/>
-      <c r="B29" s="375">
+      <c r="B29" s="303">
         <v>44402</v>
       </c>
       <c r="C29" s="27">
         <v>5021</v>
       </c>
-      <c r="D29" s="405" t="s">
+      <c r="D29" s="333" t="s">
         <v>565</v>
       </c>
-      <c r="E29" s="377">
+      <c r="E29" s="305">
         <v>44402</v>
       </c>
       <c r="F29" s="30">
         <v>178768</v>
       </c>
-      <c r="G29" s="378"/>
-      <c r="H29" s="384">
+      <c r="G29" s="306"/>
+      <c r="H29" s="312">
         <v>44402</v>
       </c>
       <c r="I29" s="43">
         <v>720</v>
       </c>
       <c r="J29" s="234"/>
-      <c r="K29" s="406"/>
+      <c r="K29" s="334"/>
       <c r="L29" s="89"/>
-      <c r="M29" s="381">
+      <c r="M29" s="309">
         <v>168806</v>
       </c>
-      <c r="N29" s="382">
+      <c r="N29" s="310">
         <v>4221</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
-      <c r="B30" s="375">
+      <c r="B30" s="303">
         <v>44403</v>
       </c>
       <c r="C30" s="27">
         <v>7198</v>
       </c>
-      <c r="D30" s="405" t="s">
+      <c r="D30" s="333" t="s">
         <v>573</v>
       </c>
-      <c r="E30" s="377">
+      <c r="E30" s="305">
         <v>44403</v>
       </c>
       <c r="F30" s="30">
         <v>98284</v>
       </c>
-      <c r="G30" s="378"/>
-      <c r="H30" s="384">
+      <c r="G30" s="306"/>
+      <c r="H30" s="312">
         <v>44403</v>
       </c>
       <c r="I30" s="74">
         <v>440</v>
       </c>
       <c r="J30" s="175"/>
-      <c r="K30" s="407"/>
+      <c r="K30" s="335"/>
       <c r="L30" s="271"/>
-      <c r="M30" s="381">
+      <c r="M30" s="309">
         <v>79889</v>
       </c>
-      <c r="N30" s="390">
+      <c r="N30" s="318">
         <f>3700+3309+3748</f>
         <v>10757</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
-      <c r="B31" s="375">
+      <c r="B31" s="303">
         <v>44404</v>
       </c>
       <c r="C31" s="78">
         <v>2905</v>
       </c>
-      <c r="D31" s="408" t="s">
+      <c r="D31" s="336" t="s">
         <v>574</v>
       </c>
-      <c r="E31" s="377">
+      <c r="E31" s="305">
         <v>44404</v>
       </c>
       <c r="F31" s="30">
         <v>77590</v>
       </c>
-      <c r="G31" s="378"/>
-      <c r="H31" s="384">
+      <c r="G31" s="306"/>
+      <c r="H31" s="312">
         <v>44404</v>
       </c>
       <c r="I31" s="74">
         <v>3424</v>
       </c>
       <c r="J31" s="175"/>
-      <c r="K31" s="409"/>
+      <c r="K31" s="337"/>
       <c r="L31" s="68"/>
-      <c r="M31" s="381">
+      <c r="M31" s="309">
         <v>67572</v>
       </c>
-      <c r="N31" s="382">
+      <c r="N31" s="310">
         <v>3689</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="25"/>
-      <c r="B32" s="375">
+      <c r="B32" s="303">
         <v>44405</v>
       </c>
       <c r="C32" s="78">
         <v>10947</v>
       </c>
-      <c r="D32" s="410" t="s">
+      <c r="D32" s="338" t="s">
         <v>575</v>
       </c>
-      <c r="E32" s="377">
+      <c r="E32" s="305">
         <v>44405</v>
       </c>
       <c r="F32" s="76">
         <v>119460</v>
       </c>
-      <c r="G32" s="378"/>
-      <c r="H32" s="384">
+      <c r="G32" s="306"/>
+      <c r="H32" s="312">
         <v>44405</v>
       </c>
       <c r="I32" s="74">
         <v>1761.61</v>
       </c>
       <c r="J32" s="175"/>
-      <c r="K32" s="407"/>
+      <c r="K32" s="335"/>
       <c r="L32" s="271"/>
-      <c r="M32" s="381">
+      <c r="M32" s="309">
         <v>99506.39</v>
       </c>
-      <c r="N32" s="382">
+      <c r="N32" s="310">
         <v>7245</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
-      <c r="B33" s="375">
+      <c r="B33" s="303">
         <v>44406</v>
       </c>
       <c r="C33" s="78">
         <v>2024</v>
       </c>
-      <c r="D33" s="411" t="s">
+      <c r="D33" s="339" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="377">
+      <c r="E33" s="305">
         <v>44406</v>
       </c>
       <c r="F33" s="78">
         <v>109088</v>
       </c>
-      <c r="G33" s="378"/>
-      <c r="H33" s="384">
+      <c r="G33" s="306"/>
+      <c r="H33" s="312">
         <v>44406</v>
       </c>
       <c r="I33" s="74">
         <v>3787.29</v>
       </c>
       <c r="J33" s="175"/>
-      <c r="K33" s="409"/>
+      <c r="K33" s="337"/>
       <c r="L33" s="276"/>
-      <c r="M33" s="381">
+      <c r="M33" s="309">
         <v>98280.71</v>
       </c>
-      <c r="N33" s="382">
+      <c r="N33" s="310">
         <v>4996</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="25"/>
-      <c r="B34" s="375">
+      <c r="B34" s="303">
         <v>44407</v>
       </c>
       <c r="C34" s="78">
         <v>17457</v>
       </c>
-      <c r="D34" s="410" t="s">
+      <c r="D34" s="338" t="s">
         <v>576</v>
       </c>
-      <c r="E34" s="377">
+      <c r="E34" s="305">
         <v>44407</v>
       </c>
       <c r="F34" s="78">
         <v>258851</v>
       </c>
-      <c r="G34" s="378"/>
-      <c r="H34" s="384">
+      <c r="G34" s="306"/>
+      <c r="H34" s="312">
         <v>44407</v>
       </c>
       <c r="I34" s="74">
@@ -19072,38 +19088,38 @@
       <c r="J34" s="233">
         <v>44407</v>
       </c>
-      <c r="K34" s="412" t="s">
+      <c r="K34" s="340" t="s">
         <v>577</v>
       </c>
       <c r="L34" s="10">
         <v>30000</v>
       </c>
-      <c r="M34" s="381">
+      <c r="M34" s="309">
         <v>197380</v>
       </c>
-      <c r="N34" s="382">
+      <c r="N34" s="310">
         <v>11259</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="25"/>
-      <c r="B35" s="375">
+      <c r="B35" s="303">
         <v>44408</v>
       </c>
       <c r="C35" s="78">
         <v>7664.5</v>
       </c>
-      <c r="D35" s="413" t="s">
+      <c r="D35" s="341" t="s">
         <v>578</v>
       </c>
-      <c r="E35" s="377">
+      <c r="E35" s="305">
         <v>44408</v>
       </c>
       <c r="F35" s="78">
         <v>206486</v>
       </c>
-      <c r="G35" s="378"/>
-      <c r="H35" s="384">
+      <c r="G35" s="306"/>
+      <c r="H35" s="312">
         <v>44408</v>
       </c>
       <c r="I35" s="74">
@@ -19112,188 +19128,188 @@
       <c r="J35" s="233">
         <v>44408</v>
       </c>
-      <c r="K35" s="403" t="s">
+      <c r="K35" s="331" t="s">
         <v>579</v>
       </c>
       <c r="L35" s="78">
         <f>23312.72+400</f>
         <v>23712.720000000001</v>
       </c>
-      <c r="M35" s="381">
+      <c r="M35" s="309">
         <v>173618.5</v>
       </c>
-      <c r="N35" s="382">
+      <c r="N35" s="310">
         <v>6530</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
-      <c r="B36" s="375">
+      <c r="B36" s="303">
         <v>44409</v>
       </c>
       <c r="C36" s="78">
         <v>1054</v>
       </c>
-      <c r="D36" s="408" t="s">
+      <c r="D36" s="336" t="s">
         <v>580</v>
       </c>
-      <c r="E36" s="377">
+      <c r="E36" s="305">
         <v>44409</v>
       </c>
       <c r="F36" s="78">
         <v>148357</v>
       </c>
-      <c r="G36" s="378"/>
-      <c r="H36" s="384">
+      <c r="G36" s="306"/>
+      <c r="H36" s="312">
         <v>44409</v>
       </c>
       <c r="I36" s="74">
         <v>700</v>
       </c>
       <c r="J36" s="175"/>
-      <c r="K36" s="414"/>
+      <c r="K36" s="342"/>
       <c r="L36" s="278"/>
-      <c r="M36" s="415">
+      <c r="M36" s="343">
         <v>129489</v>
       </c>
-      <c r="N36" s="382">
+      <c r="N36" s="310">
         <v>17114</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="25"/>
-      <c r="B37" s="375">
+      <c r="B37" s="303">
         <v>44410</v>
       </c>
       <c r="C37" s="78">
         <v>21609</v>
       </c>
-      <c r="D37" s="410" t="s">
+      <c r="D37" s="338" t="s">
         <v>581</v>
       </c>
-      <c r="E37" s="377">
+      <c r="E37" s="305">
         <v>44410</v>
       </c>
       <c r="F37" s="200">
         <v>80970</v>
       </c>
-      <c r="G37" s="378"/>
-      <c r="H37" s="384">
+      <c r="G37" s="306"/>
+      <c r="H37" s="312">
         <v>44410</v>
       </c>
       <c r="I37" s="74">
         <v>490</v>
       </c>
       <c r="J37" s="175"/>
-      <c r="K37" s="409"/>
+      <c r="K37" s="337"/>
       <c r="L37" s="276"/>
-      <c r="M37" s="416">
+      <c r="M37" s="344">
         <v>52350</v>
       </c>
-      <c r="N37" s="390">
+      <c r="N37" s="318">
         <f>6476+45</f>
         <v>6521</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="25"/>
-      <c r="B38" s="375">
+      <c r="B38" s="303">
         <v>44411</v>
       </c>
       <c r="C38" s="78">
         <v>2035</v>
       </c>
-      <c r="D38" s="411" t="s">
+      <c r="D38" s="339" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="377">
+      <c r="E38" s="305">
         <v>44411</v>
       </c>
       <c r="F38" s="200">
         <v>212722</v>
       </c>
-      <c r="G38" s="378"/>
-      <c r="H38" s="384">
+      <c r="G38" s="306"/>
+      <c r="H38" s="312">
         <v>44411</v>
       </c>
       <c r="I38" s="74">
         <v>707</v>
       </c>
       <c r="J38" s="175"/>
-      <c r="K38" s="409"/>
+      <c r="K38" s="337"/>
       <c r="L38" s="276"/>
-      <c r="M38" s="417">
+      <c r="M38" s="345">
         <v>185490</v>
       </c>
-      <c r="N38" s="418">
+      <c r="N38" s="346">
         <v>24490</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25"/>
-      <c r="B39" s="375"/>
+      <c r="B39" s="303"/>
       <c r="C39" s="78"/>
-      <c r="D39" s="408"/>
-      <c r="E39" s="377"/>
-      <c r="F39" s="419"/>
-      <c r="G39" s="378"/>
-      <c r="H39" s="384"/>
+      <c r="D39" s="336"/>
+      <c r="E39" s="305"/>
+      <c r="F39" s="347"/>
+      <c r="G39" s="306"/>
+      <c r="H39" s="312"/>
       <c r="I39" s="74"/>
       <c r="J39" s="175"/>
-      <c r="K39" s="420"/>
+      <c r="K39" s="348"/>
       <c r="L39" s="271"/>
-      <c r="M39" s="421">
+      <c r="M39" s="454">
         <f>SUM(M5:M38)</f>
         <v>3989872.22</v>
       </c>
-      <c r="N39" s="422">
+      <c r="N39" s="456">
         <f>SUM(N5:N38)</f>
         <v>688820.5</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="25"/>
-      <c r="B40" s="375"/>
+      <c r="B40" s="303"/>
       <c r="C40" s="78"/>
-      <c r="D40" s="408"/>
-      <c r="E40" s="377"/>
-      <c r="F40" s="419"/>
-      <c r="G40" s="378"/>
-      <c r="H40" s="384"/>
+      <c r="D40" s="336"/>
+      <c r="E40" s="305"/>
+      <c r="F40" s="347"/>
+      <c r="G40" s="306"/>
+      <c r="H40" s="312"/>
       <c r="I40" s="74"/>
       <c r="J40" s="175" t="s">
         <v>582</v>
       </c>
-      <c r="K40" s="409" t="s">
+      <c r="K40" s="337" t="s">
         <v>513</v>
       </c>
       <c r="L40" s="271">
         <f>1145.91+398.99+423.94+498.99+398.99</f>
         <v>2866.8199999999997</v>
       </c>
-      <c r="M40" s="423"/>
-      <c r="N40" s="424"/>
+      <c r="M40" s="455"/>
+      <c r="N40" s="457"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="25"/>
-      <c r="B41" s="425">
+      <c r="B41" s="349">
         <v>44378</v>
       </c>
       <c r="C41" s="80">
         <v>25009.35</v>
       </c>
-      <c r="D41" s="408" t="s">
+      <c r="D41" s="336" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="377"/>
-      <c r="F41" s="426"/>
-      <c r="G41" s="378"/>
-      <c r="H41" s="384"/>
+      <c r="E41" s="305"/>
+      <c r="F41" s="350"/>
+      <c r="G41" s="306"/>
+      <c r="H41" s="312"/>
       <c r="I41" s="74"/>
       <c r="J41" s="175" t="s">
         <v>582</v>
       </c>
-      <c r="K41" s="409" t="s">
+      <c r="K41" s="337" t="s">
         <v>239</v>
       </c>
       <c r="L41" s="271">
@@ -19304,24 +19320,24 @@
     </row>
     <row r="42" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="25"/>
-      <c r="B42" s="425">
+      <c r="B42" s="349">
         <v>44380</v>
       </c>
       <c r="C42" s="80">
         <v>19576.650000000001</v>
       </c>
-      <c r="D42" s="408" t="s">
+      <c r="D42" s="336" t="s">
         <v>236</v>
       </c>
-      <c r="E42" s="377"/>
-      <c r="F42" s="427"/>
-      <c r="G42" s="378"/>
-      <c r="H42" s="384"/>
+      <c r="E42" s="305"/>
+      <c r="F42" s="351"/>
+      <c r="G42" s="306"/>
+      <c r="H42" s="312"/>
       <c r="I42" s="74"/>
       <c r="J42" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K42" s="409" t="s">
+      <c r="K42" s="337" t="s">
         <v>332</v>
       </c>
       <c r="L42" s="271">
@@ -19332,24 +19348,24 @@
     </row>
     <row r="43" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="25"/>
-      <c r="B43" s="425">
+      <c r="B43" s="349">
         <v>44384</v>
       </c>
       <c r="C43" s="80">
         <v>32031.17</v>
       </c>
-      <c r="D43" s="408" t="s">
+      <c r="D43" s="336" t="s">
         <v>236</v>
       </c>
-      <c r="E43" s="377"/>
-      <c r="F43" s="427"/>
-      <c r="G43" s="378"/>
-      <c r="H43" s="384"/>
+      <c r="E43" s="305"/>
+      <c r="F43" s="351"/>
+      <c r="G43" s="306"/>
+      <c r="H43" s="312"/>
       <c r="I43" s="74"/>
       <c r="J43" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K43" s="409" t="s">
+      <c r="K43" s="337" t="s">
         <v>144</v>
       </c>
       <c r="L43" s="271">
@@ -19361,358 +19377,358 @@
     </row>
     <row r="44" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="25"/>
-      <c r="B44" s="425">
+      <c r="B44" s="349">
         <v>44386</v>
       </c>
       <c r="C44" s="80">
         <v>17767.02</v>
       </c>
-      <c r="D44" s="408" t="s">
+      <c r="D44" s="336" t="s">
         <v>236</v>
       </c>
-      <c r="E44" s="377"/>
-      <c r="F44" s="385"/>
-      <c r="G44" s="378"/>
-      <c r="H44" s="384"/>
+      <c r="E44" s="305"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="306"/>
+      <c r="H44" s="312"/>
       <c r="I44" s="74"/>
       <c r="J44" s="175" t="s">
         <v>582</v>
       </c>
-      <c r="K44" s="428" t="s">
+      <c r="K44" s="352" t="s">
         <v>506</v>
       </c>
       <c r="L44" s="276">
         <v>73526</v>
       </c>
-      <c r="M44" s="429" t="s">
+      <c r="M44" s="458" t="s">
         <v>477</v>
       </c>
-      <c r="N44" s="429"/>
+      <c r="N44" s="458"/>
     </row>
     <row r="45" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
-      <c r="B45" s="425">
+      <c r="B45" s="349">
         <v>44391</v>
       </c>
       <c r="C45" s="80">
         <v>22444</v>
       </c>
-      <c r="D45" s="408" t="s">
+      <c r="D45" s="336" t="s">
         <v>236</v>
       </c>
-      <c r="E45" s="377"/>
-      <c r="F45" s="385"/>
-      <c r="G45" s="378"/>
-      <c r="H45" s="384"/>
+      <c r="E45" s="305"/>
+      <c r="F45" s="313"/>
+      <c r="G45" s="306"/>
+      <c r="H45" s="312"/>
       <c r="I45" s="74"/>
       <c r="J45" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K45" s="428" t="s">
+      <c r="K45" s="352" t="s">
         <v>151</v>
       </c>
       <c r="L45" s="276">
         <v>10000</v>
       </c>
-      <c r="M45" s="430">
+      <c r="M45" s="353">
         <v>341970</v>
       </c>
-      <c r="N45" s="431">
+      <c r="N45" s="354">
         <v>44382</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
-      <c r="B46" s="425">
+      <c r="B46" s="349">
         <v>44393</v>
       </c>
       <c r="C46" s="80">
         <v>11203.5</v>
       </c>
-      <c r="D46" s="408" t="s">
+      <c r="D46" s="336" t="s">
         <v>236</v>
       </c>
-      <c r="E46" s="377"/>
-      <c r="F46" s="385"/>
-      <c r="G46" s="378"/>
-      <c r="H46" s="384"/>
+      <c r="E46" s="305"/>
+      <c r="F46" s="313"/>
+      <c r="G46" s="306"/>
+      <c r="H46" s="312"/>
       <c r="I46" s="74"/>
       <c r="J46" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K46" s="432" t="s">
+      <c r="K46" s="355" t="s">
         <v>201</v>
       </c>
       <c r="L46" s="68">
         <v>18104.22</v>
       </c>
-      <c r="M46" s="433">
+      <c r="M46" s="356">
         <v>203050</v>
       </c>
-      <c r="N46" s="431">
+      <c r="N46" s="354">
         <v>44386</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
-      <c r="B47" s="425">
+      <c r="B47" s="349">
         <v>44396</v>
       </c>
       <c r="C47" s="80">
         <v>15376.78</v>
       </c>
-      <c r="D47" s="408" t="s">
+      <c r="D47" s="336" t="s">
         <v>236</v>
       </c>
-      <c r="E47" s="377"/>
-      <c r="F47" s="385"/>
-      <c r="G47" s="378"/>
-      <c r="H47" s="384"/>
+      <c r="E47" s="305"/>
+      <c r="F47" s="313"/>
+      <c r="G47" s="306"/>
+      <c r="H47" s="312"/>
       <c r="I47" s="74"/>
       <c r="J47" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K47" s="409" t="s">
+      <c r="K47" s="337" t="s">
         <v>584</v>
       </c>
       <c r="L47" s="68">
         <v>580</v>
       </c>
-      <c r="M47" s="433">
+      <c r="M47" s="356">
         <v>183700</v>
       </c>
-      <c r="N47" s="431">
+      <c r="N47" s="354">
         <v>44386</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
-      <c r="B48" s="425">
+      <c r="B48" s="349">
         <v>44399</v>
       </c>
       <c r="C48" s="78">
         <v>23529.78</v>
       </c>
-      <c r="D48" s="408" t="s">
+      <c r="D48" s="336" t="s">
         <v>236</v>
       </c>
-      <c r="E48" s="434"/>
+      <c r="E48" s="357"/>
       <c r="F48" s="86"/>
-      <c r="G48" s="378"/>
-      <c r="H48" s="384"/>
+      <c r="G48" s="306"/>
+      <c r="H48" s="312"/>
       <c r="I48" s="74"/>
       <c r="J48" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K48" s="409" t="s">
+      <c r="K48" s="337" t="s">
         <v>585</v>
       </c>
       <c r="L48" s="68">
         <v>11880</v>
       </c>
-      <c r="M48" s="435">
+      <c r="M48" s="358">
         <v>329090</v>
       </c>
-      <c r="N48" s="436">
+      <c r="N48" s="359">
         <v>44389</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
-      <c r="B49" s="425">
+      <c r="B49" s="349">
         <v>44404</v>
       </c>
       <c r="C49" s="78">
         <v>13087.5</v>
       </c>
-      <c r="D49" s="408" t="s">
+      <c r="D49" s="336" t="s">
         <v>236</v>
       </c>
-      <c r="E49" s="434"/>
+      <c r="E49" s="357"/>
       <c r="F49" s="86"/>
-      <c r="G49" s="378"/>
-      <c r="H49" s="384"/>
+      <c r="G49" s="306"/>
+      <c r="H49" s="312"/>
       <c r="I49" s="74"/>
       <c r="J49" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K49" s="409" t="s">
+      <c r="K49" s="337" t="s">
         <v>586</v>
       </c>
       <c r="L49" s="68">
         <v>370</v>
       </c>
-      <c r="M49" s="437">
+      <c r="M49" s="360">
         <v>174070</v>
       </c>
-      <c r="N49" s="436">
+      <c r="N49" s="359">
         <v>44392</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
-      <c r="B50" s="425">
+      <c r="B50" s="349">
         <v>44407</v>
       </c>
       <c r="C50" s="78">
         <v>29170.44</v>
       </c>
-      <c r="D50" s="408" t="s">
+      <c r="D50" s="336" t="s">
         <v>236</v>
       </c>
-      <c r="E50" s="438"/>
+      <c r="E50" s="361"/>
       <c r="F50" s="86"/>
-      <c r="G50" s="378"/>
-      <c r="H50" s="384"/>
+      <c r="G50" s="306"/>
+      <c r="H50" s="312"/>
       <c r="I50" s="74"/>
       <c r="J50" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K50" s="409" t="s">
+      <c r="K50" s="337" t="s">
         <v>587</v>
       </c>
       <c r="L50" s="68">
         <v>9000</v>
       </c>
-      <c r="M50" s="437">
+      <c r="M50" s="360">
         <v>339360</v>
       </c>
-      <c r="N50" s="431">
+      <c r="N50" s="354">
         <v>44396</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
-      <c r="B51" s="425" t="s">
+      <c r="B51" s="349" t="s">
         <v>583</v>
       </c>
       <c r="C51" s="78">
         <f>50556.69+25240.83+54215.65</f>
         <v>130013.17000000001</v>
       </c>
-      <c r="D51" s="408" t="s">
+      <c r="D51" s="336" t="s">
         <v>588</v>
       </c>
-      <c r="E51" s="438"/>
+      <c r="E51" s="361"/>
       <c r="F51" s="86"/>
-      <c r="G51" s="378"/>
-      <c r="H51" s="384"/>
+      <c r="G51" s="306"/>
+      <c r="H51" s="312"/>
       <c r="I51" s="74"/>
       <c r="J51" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K51" s="409" t="s">
+      <c r="K51" s="337" t="s">
         <v>511</v>
       </c>
       <c r="L51" s="68">
         <f>399+399</f>
         <v>798</v>
       </c>
-      <c r="M51" s="437">
+      <c r="M51" s="360">
         <v>260000</v>
       </c>
-      <c r="N51" s="431">
+      <c r="N51" s="354">
         <v>44398</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
-      <c r="B52" s="425" t="s">
+      <c r="B52" s="349" t="s">
         <v>583</v>
       </c>
       <c r="C52" s="78">
         <f>50000+399950</f>
         <v>449950</v>
       </c>
-      <c r="D52" s="408" t="s">
+      <c r="D52" s="336" t="s">
         <v>589</v>
       </c>
-      <c r="E52" s="377"/>
+      <c r="E52" s="305"/>
       <c r="F52" s="78"/>
-      <c r="G52" s="378"/>
-      <c r="H52" s="384"/>
+      <c r="G52" s="306"/>
+      <c r="H52" s="312"/>
       <c r="I52" s="74"/>
       <c r="J52" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K52" s="409" t="s">
+      <c r="K52" s="337" t="s">
         <v>590</v>
       </c>
       <c r="L52" s="68">
         <v>5670</v>
       </c>
-      <c r="M52" s="437">
+      <c r="M52" s="360">
         <v>313100</v>
       </c>
-      <c r="N52" s="431">
+      <c r="N52" s="354">
         <v>44400</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
-      <c r="B53" s="425"/>
+      <c r="B53" s="349"/>
       <c r="C53" s="78"/>
-      <c r="D53" s="439"/>
-      <c r="E53" s="377"/>
+      <c r="D53" s="362"/>
+      <c r="E53" s="305"/>
       <c r="F53" s="78"/>
-      <c r="G53" s="378"/>
-      <c r="H53" s="384"/>
+      <c r="G53" s="306"/>
+      <c r="H53" s="312"/>
       <c r="I53" s="74" t="s">
         <v>11</v>
       </c>
       <c r="J53" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K53" s="432" t="s">
+      <c r="K53" s="355" t="s">
         <v>591</v>
       </c>
       <c r="L53" s="68">
         <f>13688+2320</f>
         <v>16008</v>
       </c>
-      <c r="M53" s="437">
+      <c r="M53" s="360">
         <v>460570</v>
       </c>
-      <c r="N53" s="431">
+      <c r="N53" s="354">
         <v>44403</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="25"/>
-      <c r="B54" s="425"/>
+      <c r="B54" s="349"/>
       <c r="C54" s="78"/>
-      <c r="D54" s="439"/>
-      <c r="E54" s="377"/>
+      <c r="D54" s="362"/>
+      <c r="E54" s="305"/>
       <c r="F54" s="78"/>
-      <c r="G54" s="378"/>
-      <c r="H54" s="384"/>
+      <c r="G54" s="306"/>
+      <c r="H54" s="312"/>
       <c r="I54" s="74"/>
       <c r="J54" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K54" s="440" t="s">
+      <c r="K54" s="363" t="s">
         <v>42</v>
       </c>
       <c r="L54" s="68">
         <f>1394.81+986.84</f>
         <v>2381.65</v>
       </c>
-      <c r="M54" s="441">
+      <c r="M54" s="364">
         <v>415730</v>
       </c>
-      <c r="N54" s="442">
+      <c r="N54" s="365">
         <v>44407</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="25"/>
-      <c r="B55" s="425"/>
+      <c r="B55" s="349"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="439"/>
-      <c r="E55" s="377"/>
+      <c r="D55" s="362"/>
+      <c r="E55" s="305"/>
       <c r="F55" s="78"/>
-      <c r="G55" s="378"/>
-      <c r="H55" s="384"/>
+      <c r="G55" s="306"/>
+      <c r="H55" s="312"/>
       <c r="I55" s="74"/>
       <c r="J55" s="175" t="s">
         <v>583</v>
@@ -19723,95 +19739,95 @@
       <c r="L55" s="68">
         <v>55555.55</v>
       </c>
-      <c r="M55" s="441">
+      <c r="M55" s="364">
         <v>295640</v>
       </c>
-      <c r="N55" s="431">
+      <c r="N55" s="354">
         <v>44410</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25"/>
-      <c r="B56" s="425"/>
+      <c r="B56" s="349"/>
       <c r="C56" s="78"/>
-      <c r="D56" s="439"/>
-      <c r="E56" s="443"/>
+      <c r="D56" s="362"/>
+      <c r="E56" s="366"/>
       <c r="F56" s="99"/>
-      <c r="G56" s="378"/>
-      <c r="H56" s="444"/>
+      <c r="G56" s="306"/>
+      <c r="H56" s="367"/>
       <c r="I56" s="100"/>
       <c r="J56" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="K56" s="445" t="s">
+      <c r="K56" s="368" t="s">
         <v>593</v>
       </c>
-      <c r="L56" s="446">
+      <c r="L56" s="369">
         <v>11485.41</v>
       </c>
-      <c r="M56" s="447">
+      <c r="M56" s="370">
         <v>290470</v>
       </c>
-      <c r="N56" s="431">
+      <c r="N56" s="354">
         <v>44414</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
-      <c r="B57" s="425"/>
+      <c r="B57" s="349"/>
       <c r="C57" s="78"/>
-      <c r="D57" s="448"/>
-      <c r="E57" s="443"/>
+      <c r="D57" s="371"/>
+      <c r="E57" s="366"/>
       <c r="F57" s="99"/>
-      <c r="G57" s="378"/>
-      <c r="H57" s="444"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="367"/>
       <c r="I57" s="100"/>
       <c r="J57" s="237" t="s">
         <v>582</v>
       </c>
-      <c r="K57" s="414" t="s">
+      <c r="K57" s="342" t="s">
         <v>594</v>
       </c>
-      <c r="L57" s="446">
+      <c r="L57" s="369">
         <v>7482</v>
       </c>
-      <c r="M57" s="449">
+      <c r="M57" s="459">
         <f>SUM(M45:M56)</f>
         <v>3606750</v>
       </c>
-      <c r="N57" s="450"/>
+      <c r="N57" s="372"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
-      <c r="B58" s="425"/>
+      <c r="B58" s="349"/>
       <c r="C58" s="78"/>
-      <c r="D58" s="448"/>
-      <c r="E58" s="443"/>
+      <c r="D58" s="371"/>
+      <c r="E58" s="366"/>
       <c r="F58" s="99"/>
-      <c r="G58" s="378"/>
-      <c r="H58" s="444"/>
+      <c r="G58" s="306"/>
+      <c r="H58" s="367"/>
       <c r="I58" s="100"/>
       <c r="J58" s="237" t="s">
         <v>582</v>
       </c>
-      <c r="K58" s="440" t="s">
+      <c r="K58" s="363" t="s">
         <v>46</v>
       </c>
-      <c r="L58" s="446">
+      <c r="L58" s="369">
         <v>986</v>
       </c>
-      <c r="M58" s="451"/>
-      <c r="N58" s="450"/>
+      <c r="M58" s="460"/>
+      <c r="N58" s="372"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
-      <c r="B59" s="425"/>
+      <c r="B59" s="349"/>
       <c r="C59" s="78"/>
-      <c r="D59" s="448"/>
-      <c r="E59" s="443"/>
+      <c r="D59" s="371"/>
+      <c r="E59" s="366"/>
       <c r="F59" s="99"/>
-      <c r="G59" s="378"/>
-      <c r="H59" s="444"/>
+      <c r="G59" s="306"/>
+      <c r="H59" s="367"/>
       <c r="I59" s="100"/>
       <c r="J59" s="237" t="s">
         <v>582</v>
@@ -19819,54 +19835,54 @@
       <c r="K59" s="277" t="s">
         <v>595</v>
       </c>
-      <c r="L59" s="446">
+      <c r="L59" s="369">
         <v>5878.28</v>
       </c>
-      <c r="M59" s="452"/>
+      <c r="M59" s="373"/>
       <c r="N59" s="36"/>
     </row>
     <row r="60" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="25"/>
-      <c r="B60" s="453"/>
+      <c r="B60" s="374"/>
       <c r="C60" s="78"/>
-      <c r="D60" s="448"/>
-      <c r="E60" s="443"/>
+      <c r="D60" s="371"/>
+      <c r="E60" s="366"/>
       <c r="F60" s="99"/>
-      <c r="G60" s="378"/>
-      <c r="H60" s="444"/>
+      <c r="G60" s="306"/>
+      <c r="H60" s="367"/>
       <c r="I60" s="100"/>
       <c r="J60" s="237" t="s">
         <v>582</v>
       </c>
-      <c r="K60" s="454" t="s">
+      <c r="K60" s="375" t="s">
         <v>596</v>
       </c>
-      <c r="L60" s="446">
+      <c r="L60" s="369">
         <f>1033.33+165.33</f>
         <v>1198.6599999999999</v>
       </c>
-      <c r="M60" s="455" t="s">
+      <c r="M60" s="461" t="s">
         <v>597</v>
       </c>
-      <c r="N60" s="456"/>
+      <c r="N60" s="462"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
-      <c r="B61" s="453"/>
+      <c r="B61" s="374"/>
       <c r="C61" s="78"/>
-      <c r="D61" s="448"/>
-      <c r="E61" s="443"/>
+      <c r="D61" s="371"/>
+      <c r="E61" s="366"/>
       <c r="F61" s="99"/>
-      <c r="G61" s="378"/>
-      <c r="H61" s="444"/>
+      <c r="G61" s="306"/>
+      <c r="H61" s="367"/>
       <c r="I61" s="100"/>
       <c r="J61" s="237" t="s">
         <v>582</v>
       </c>
-      <c r="K61" s="457" t="s">
+      <c r="K61" s="376" t="s">
         <v>598</v>
       </c>
-      <c r="L61" s="458">
+      <c r="L61" s="377">
         <v>24433.22</v>
       </c>
       <c r="M61" s="35"/>
@@ -19874,13 +19890,13 @@
     </row>
     <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
-      <c r="B62" s="453"/>
+      <c r="B62" s="374"/>
       <c r="C62" s="78"/>
-      <c r="D62" s="448"/>
-      <c r="E62" s="443"/>
+      <c r="D62" s="371"/>
+      <c r="E62" s="366"/>
       <c r="F62" s="99"/>
-      <c r="G62" s="378"/>
-      <c r="H62" s="444"/>
+      <c r="G62" s="306"/>
+      <c r="H62" s="367"/>
       <c r="I62" s="100"/>
       <c r="J62" s="237" t="s">
         <v>582</v>
@@ -19888,24 +19904,24 @@
       <c r="K62" s="277" t="s">
         <v>420</v>
       </c>
-      <c r="L62" s="446">
+      <c r="L62" s="369">
         <v>22595.71</v>
       </c>
-      <c r="M62" s="459">
+      <c r="M62" s="463">
         <f>M57-M39</f>
         <v>-383122.2200000002</v>
       </c>
-      <c r="N62" s="460"/>
+      <c r="N62" s="464"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
-      <c r="B63" s="453"/>
+      <c r="B63" s="374"/>
       <c r="C63" s="78"/>
-      <c r="D63" s="448"/>
-      <c r="E63" s="443"/>
+      <c r="D63" s="371"/>
+      <c r="E63" s="366"/>
       <c r="F63" s="99"/>
-      <c r="G63" s="378"/>
-      <c r="H63" s="444"/>
+      <c r="G63" s="306"/>
+      <c r="H63" s="367"/>
       <c r="I63" s="100"/>
       <c r="J63" s="237" t="s">
         <v>582</v>
@@ -19913,21 +19929,21 @@
       <c r="K63" s="277" t="s">
         <v>421</v>
       </c>
-      <c r="L63" s="446">
+      <c r="L63" s="369">
         <v>1064</v>
       </c>
-      <c r="M63" s="461"/>
-      <c r="N63" s="462"/>
+      <c r="M63" s="465"/>
+      <c r="N63" s="466"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25"/>
-      <c r="B64" s="453"/>
+      <c r="B64" s="374"/>
       <c r="C64" s="78"/>
-      <c r="D64" s="448"/>
-      <c r="E64" s="443"/>
+      <c r="D64" s="371"/>
+      <c r="E64" s="366"/>
       <c r="F64" s="99"/>
-      <c r="G64" s="378"/>
-      <c r="H64" s="444"/>
+      <c r="G64" s="306"/>
+      <c r="H64" s="367"/>
       <c r="I64" s="100"/>
       <c r="J64" s="237" t="s">
         <v>582</v>
@@ -19935,7 +19951,7 @@
       <c r="K64" s="277" t="s">
         <v>599</v>
       </c>
-      <c r="L64" s="446">
+      <c r="L64" s="369">
         <v>10440</v>
       </c>
       <c r="M64" s="35"/>
@@ -19953,8 +19969,8 @@
       <c r="J65" s="237" t="s">
         <v>582</v>
       </c>
-      <c r="K65" s="463"/>
-      <c r="L65" s="446"/>
+      <c r="K65" s="378"/>
+      <c r="L65" s="369"/>
       <c r="M65" s="35"/>
       <c r="N65" s="36"/>
     </row>
@@ -19972,7 +19988,7 @@
       <c r="J66" s="237" t="s">
         <v>582</v>
       </c>
-      <c r="K66" s="464"/>
+      <c r="K66" s="379"/>
       <c r="L66" s="10"/>
       <c r="M66" s="35"/>
       <c r="N66" s="36"/>
@@ -20021,24 +20037,24 @@
       <c r="A69" s="58"/>
       <c r="B69" s="115"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="325" t="s">
+      <c r="H69" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="I69" s="326"/>
+      <c r="I69" s="405"/>
       <c r="J69" s="116"/>
-      <c r="K69" s="327">
+      <c r="K69" s="406">
         <f>I67+L67</f>
         <v>587206.12</v>
       </c>
-      <c r="L69" s="328"/>
-      <c r="M69" s="465"/>
-      <c r="N69" s="466"/>
+      <c r="L69" s="407"/>
+      <c r="M69" s="380"/>
+      <c r="N69" s="381"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="317" t="s">
+      <c r="D70" s="396" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="317"/>
+      <c r="E70" s="396"/>
       <c r="F70" s="117">
         <f>F67-K69-C67</f>
         <v>3436910.52</v>
@@ -20047,22 +20063,22 @@
       <c r="J70" s="119"/>
     </row>
     <row r="71" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="318" t="s">
+      <c r="D71" s="397" t="s">
         <v>429</v>
       </c>
-      <c r="E71" s="318"/>
+      <c r="E71" s="397"/>
       <c r="F71" s="114">
         <v>-3290264.27</v>
       </c>
-      <c r="I71" s="319" t="s">
+      <c r="I71" s="398" t="s">
         <v>63</v>
       </c>
-      <c r="J71" s="320"/>
-      <c r="K71" s="321">
+      <c r="J71" s="399"/>
+      <c r="K71" s="400">
         <f>F73+F74+F75</f>
         <v>426565.1</v>
       </c>
-      <c r="L71" s="322"/>
+      <c r="L71" s="401"/>
     </row>
     <row r="72" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D72" s="120"/>
@@ -20091,11 +20107,11 @@
         <v>65</v>
       </c>
       <c r="J73" s="127"/>
-      <c r="K73" s="323">
+      <c r="K73" s="402">
         <f>-C4</f>
         <v>-308642.71999999997</v>
       </c>
-      <c r="L73" s="467"/>
+      <c r="L73" s="445"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="87" t="s">
@@ -20112,22 +20128,22 @@
       <c r="C75" s="130">
         <v>44410</v>
       </c>
-      <c r="D75" s="309" t="s">
+      <c r="D75" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="310"/>
+      <c r="E75" s="389"/>
       <c r="F75" s="131">
         <v>250140.85</v>
       </c>
-      <c r="I75" s="311" t="s">
+      <c r="I75" s="390" t="s">
         <v>69</v>
       </c>
-      <c r="J75" s="312"/>
-      <c r="K75" s="313">
+      <c r="J75" s="391"/>
+      <c r="K75" s="392">
         <f>K71+K73</f>
         <v>117922.38</v>
       </c>
-      <c r="L75" s="313"/>
+      <c r="L75" s="392"/>
     </row>
     <row r="76" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C76" s="132"/>
@@ -20137,24 +20153,24 @@
       <c r="J76" s="136"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I77" s="468" t="s">
+      <c r="I77" s="446" t="s">
         <v>547</v>
       </c>
-      <c r="J77" s="469"/>
-      <c r="K77" s="470">
+      <c r="J77" s="447"/>
+      <c r="K77" s="450">
         <v>-383122.22</v>
       </c>
-      <c r="L77" s="471"/>
+      <c r="L77" s="451"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="138"/>
       <c r="C78" s="139"/>
       <c r="D78" s="140"/>
       <c r="E78" s="141"/>
-      <c r="I78" s="472"/>
-      <c r="J78" s="473"/>
-      <c r="K78" s="474"/>
-      <c r="L78" s="475"/>
+      <c r="I78" s="448"/>
+      <c r="J78" s="449"/>
+      <c r="K78" s="452"/>
+      <c r="L78" s="453"/>
       <c r="M78" s="2"/>
       <c r="N78" s="58"/>
     </row>
@@ -20182,116 +20198,99 @@
     <row r="82" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="138"/>
       <c r="C82" s="142"/>
-      <c r="D82" s="476"/>
+      <c r="D82" s="382"/>
       <c r="E82" s="141"/>
       <c r="F82" s="208"/>
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D83" s="476"/>
-      <c r="E83" s="477"/>
+      <c r="D83" s="382"/>
+      <c r="E83" s="383"/>
       <c r="F83" s="141"/>
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D84" s="476"/>
-      <c r="E84" s="477"/>
+      <c r="D84" s="382"/>
+      <c r="E84" s="383"/>
       <c r="F84" s="141"/>
       <c r="M84" s="4"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D85" s="476"/>
-      <c r="E85" s="477"/>
+      <c r="D85" s="382"/>
+      <c r="E85" s="383"/>
       <c r="F85" s="141"/>
       <c r="M85" s="4"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D86" s="476"/>
-      <c r="E86" s="477"/>
+      <c r="D86" s="382"/>
+      <c r="E86" s="383"/>
       <c r="F86" s="141"/>
       <c r="M86" s="4"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D87" s="476"/>
-      <c r="E87" s="477"/>
+      <c r="D87" s="382"/>
+      <c r="E87" s="383"/>
       <c r="F87" s="141"/>
       <c r="M87" s="4"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D88" s="476"/>
-      <c r="E88" s="477"/>
+      <c r="D88" s="382"/>
+      <c r="E88" s="383"/>
       <c r="F88" s="141"/>
       <c r="M88" s="4"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D89" s="476"/>
-      <c r="E89" s="477"/>
+      <c r="D89" s="382"/>
+      <c r="E89" s="383"/>
       <c r="F89" s="141"/>
       <c r="M89" s="4"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D90" s="476"/>
-      <c r="E90" s="477"/>
+      <c r="D90" s="382"/>
+      <c r="E90" s="383"/>
       <c r="F90" s="141"/>
       <c r="M90" s="4"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D91" s="476"/>
-      <c r="E91" s="477"/>
+      <c r="D91" s="382"/>
+      <c r="E91" s="383"/>
       <c r="F91" s="141"/>
       <c r="M91" s="4"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D92" s="476"/>
-      <c r="E92" s="477"/>
+      <c r="D92" s="382"/>
+      <c r="E92" s="383"/>
       <c r="F92" s="141"/>
       <c r="M92" s="4"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D93" s="476"/>
-      <c r="E93" s="477"/>
+      <c r="D93" s="382"/>
+      <c r="E93" s="383"/>
       <c r="F93" s="141"/>
       <c r="M93" s="4"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D94" s="476"/>
-      <c r="E94" s="477"/>
+      <c r="D94" s="382"/>
+      <c r="E94" s="383"/>
       <c r="F94" s="141"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D95" s="476"/>
-      <c r="E95" s="476"/>
+      <c r="D95" s="382"/>
+      <c r="E95" s="382"/>
       <c r="F95" s="208"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D96" s="476"/>
-      <c r="E96" s="476"/>
+      <c r="D96" s="382"/>
+      <c r="E96" s="382"/>
       <c r="F96" s="208"/>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D97" s="476"/>
-      <c r="E97" s="476"/>
+      <c r="D97" s="382"/>
+      <c r="E97" s="382"/>
       <c r="F97" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M60:N60"/>
     <mergeCell ref="M62:N63"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:K1"/>
@@ -20299,6 +20298,23 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20313,7 +20329,7 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -20360,16 +20376,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="478">
+      <c r="A3" s="384">
         <v>44378</v>
       </c>
-      <c r="B3" s="479" t="s">
+      <c r="B3" s="385" t="s">
         <v>600</v>
       </c>
       <c r="C3" s="78">
         <v>167572.29</v>
       </c>
-      <c r="D3" s="480"/>
+      <c r="D3" s="386"/>
       <c r="E3" s="10"/>
       <c r="F3" s="154">
         <f>C3-E3</f>
@@ -20377,16 +20393,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="478">
+      <c r="A4" s="384">
         <v>44378</v>
       </c>
-      <c r="B4" s="479" t="s">
+      <c r="B4" s="385" t="s">
         <v>601</v>
       </c>
       <c r="C4" s="78">
         <v>1570.2</v>
       </c>
-      <c r="D4" s="481"/>
+      <c r="D4" s="387"/>
       <c r="E4" s="78"/>
       <c r="F4" s="156">
         <f>F3+C4-E4</f>
@@ -20395,16 +20411,16 @@
       <c r="G4" s="157"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="481">
+      <c r="A5" s="387">
         <v>44378</v>
       </c>
-      <c r="B5" s="479" t="s">
+      <c r="B5" s="385" t="s">
         <v>602</v>
       </c>
       <c r="C5" s="78">
         <v>50</v>
       </c>
-      <c r="D5" s="481"/>
+      <c r="D5" s="387"/>
       <c r="E5" s="78"/>
       <c r="F5" s="156">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
@@ -20412,16 +20428,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="481">
+      <c r="A6" s="387">
         <v>44378</v>
       </c>
-      <c r="B6" s="479" t="s">
+      <c r="B6" s="385" t="s">
         <v>603</v>
       </c>
       <c r="C6" s="78">
         <v>1501.5</v>
       </c>
-      <c r="D6" s="481"/>
+      <c r="D6" s="387"/>
       <c r="E6" s="78"/>
       <c r="F6" s="156">
         <f t="shared" si="0"/>
@@ -20429,16 +20445,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="481">
+      <c r="A7" s="387">
         <v>44379</v>
       </c>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="385" t="s">
         <v>604</v>
       </c>
       <c r="C7" s="78">
         <v>150631.70000000001</v>
       </c>
-      <c r="D7" s="481"/>
+      <c r="D7" s="387"/>
       <c r="E7" s="78"/>
       <c r="F7" s="156">
         <f t="shared" si="0"/>
@@ -20446,16 +20462,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="481">
+      <c r="A8" s="387">
         <v>44379</v>
       </c>
-      <c r="B8" s="479" t="s">
+      <c r="B8" s="385" t="s">
         <v>605</v>
       </c>
       <c r="C8" s="78">
         <v>10630.6</v>
       </c>
-      <c r="D8" s="481">
+      <c r="D8" s="387">
         <v>44380</v>
       </c>
       <c r="E8" s="78">
@@ -20467,16 +20483,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="481">
+      <c r="A9" s="387">
         <v>44380</v>
       </c>
-      <c r="B9" s="479" t="s">
+      <c r="B9" s="385" t="s">
         <v>606</v>
       </c>
       <c r="C9" s="78">
         <v>41478.800000000003</v>
       </c>
-      <c r="D9" s="481"/>
+      <c r="D9" s="387"/>
       <c r="E9" s="78"/>
       <c r="F9" s="156">
         <f t="shared" si="0"/>
@@ -20484,16 +20500,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="481">
+      <c r="A10" s="387">
         <v>44380</v>
       </c>
-      <c r="B10" s="479" t="s">
+      <c r="B10" s="385" t="s">
         <v>607</v>
       </c>
       <c r="C10" s="78">
         <v>22978</v>
       </c>
-      <c r="D10" s="481"/>
+      <c r="D10" s="387"/>
       <c r="E10" s="78"/>
       <c r="F10" s="156">
         <f t="shared" si="0"/>
@@ -20502,16 +20518,16 @@
       <c r="G10" s="157"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="478">
+      <c r="A11" s="384">
         <v>44381</v>
       </c>
-      <c r="B11" s="479" t="s">
+      <c r="B11" s="385" t="s">
         <v>608</v>
       </c>
       <c r="C11" s="78">
         <v>36367.800000000003</v>
       </c>
-      <c r="D11" s="481"/>
+      <c r="D11" s="387"/>
       <c r="E11" s="78"/>
       <c r="F11" s="156">
         <f t="shared" si="0"/>
@@ -20519,16 +20535,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="481">
+      <c r="A12" s="387">
         <v>44382</v>
       </c>
-      <c r="B12" s="479" t="s">
+      <c r="B12" s="385" t="s">
         <v>609</v>
       </c>
       <c r="C12" s="78">
         <v>86609.1</v>
       </c>
-      <c r="D12" s="481"/>
+      <c r="D12" s="387"/>
       <c r="E12" s="78"/>
       <c r="F12" s="156">
         <f t="shared" si="0"/>
@@ -20536,16 +20552,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="481">
+      <c r="A13" s="387">
         <v>44383</v>
       </c>
-      <c r="B13" s="479" t="s">
+      <c r="B13" s="385" t="s">
         <v>610</v>
       </c>
       <c r="C13" s="78">
         <v>143566.39999999999</v>
       </c>
-      <c r="D13" s="481"/>
+      <c r="D13" s="387"/>
       <c r="E13" s="78"/>
       <c r="F13" s="156">
         <f t="shared" si="0"/>
@@ -20553,16 +20569,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="481">
+      <c r="A14" s="387">
         <v>44383</v>
       </c>
-      <c r="B14" s="479" t="s">
+      <c r="B14" s="385" t="s">
         <v>611</v>
       </c>
       <c r="C14" s="78">
         <v>13006.5</v>
       </c>
-      <c r="D14" s="481"/>
+      <c r="D14" s="387"/>
       <c r="E14" s="78"/>
       <c r="F14" s="156">
         <f t="shared" si="0"/>
@@ -20570,16 +20586,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="481">
+      <c r="A15" s="387">
         <v>44384</v>
       </c>
-      <c r="B15" s="479" t="s">
+      <c r="B15" s="385" t="s">
         <v>612</v>
       </c>
       <c r="C15" s="78">
         <v>4243.2</v>
       </c>
-      <c r="D15" s="481"/>
+      <c r="D15" s="387"/>
       <c r="E15" s="78"/>
       <c r="F15" s="156">
         <f t="shared" si="0"/>
@@ -20587,16 +20603,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="481">
+      <c r="A16" s="387">
         <v>44385</v>
       </c>
-      <c r="B16" s="479" t="s">
+      <c r="B16" s="385" t="s">
         <v>613</v>
       </c>
       <c r="C16" s="78">
         <v>162856.76</v>
       </c>
-      <c r="D16" s="481"/>
+      <c r="D16" s="387"/>
       <c r="E16" s="78"/>
       <c r="F16" s="156">
         <f t="shared" si="0"/>
@@ -20604,16 +20620,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="481">
+      <c r="A17" s="387">
         <v>44385</v>
       </c>
-      <c r="B17" s="479" t="s">
+      <c r="B17" s="385" t="s">
         <v>614</v>
       </c>
       <c r="C17" s="78">
         <v>18152.400000000001</v>
       </c>
-      <c r="D17" s="481"/>
+      <c r="D17" s="387"/>
       <c r="E17" s="78"/>
       <c r="F17" s="156">
         <f t="shared" si="0"/>
@@ -20621,16 +20637,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="481">
+      <c r="A18" s="387">
         <v>44386</v>
       </c>
-      <c r="B18" s="479" t="s">
+      <c r="B18" s="385" t="s">
         <v>615</v>
       </c>
       <c r="C18" s="78">
         <v>21899.7</v>
       </c>
-      <c r="D18" s="481">
+      <c r="D18" s="387">
         <v>44387</v>
       </c>
       <c r="E18" s="78">
@@ -20642,16 +20658,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="481">
+      <c r="A19" s="387">
         <v>44386</v>
       </c>
-      <c r="B19" s="479" t="s">
+      <c r="B19" s="385" t="s">
         <v>616</v>
       </c>
       <c r="C19" s="78">
         <v>214902.82</v>
       </c>
-      <c r="D19" s="481"/>
+      <c r="D19" s="387"/>
       <c r="E19" s="78"/>
       <c r="F19" s="156">
         <f t="shared" si="0"/>
@@ -20659,16 +20675,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="481">
+      <c r="A20" s="387">
         <v>44386</v>
       </c>
-      <c r="B20" s="479" t="s">
+      <c r="B20" s="385" t="s">
         <v>617</v>
       </c>
       <c r="C20" s="78">
         <v>11716.2</v>
       </c>
-      <c r="D20" s="481"/>
+      <c r="D20" s="387"/>
       <c r="E20" s="78"/>
       <c r="F20" s="156">
         <f t="shared" si="0"/>
@@ -20676,16 +20692,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="481">
+      <c r="A21" s="387">
         <v>44387</v>
       </c>
-      <c r="B21" s="479" t="s">
+      <c r="B21" s="385" t="s">
         <v>618</v>
       </c>
       <c r="C21" s="78">
         <v>29018.5</v>
       </c>
-      <c r="D21" s="481"/>
+      <c r="D21" s="387"/>
       <c r="E21" s="78"/>
       <c r="F21" s="156">
         <f t="shared" si="0"/>
@@ -20693,16 +20709,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="481">
+      <c r="A22" s="387">
         <v>44387</v>
       </c>
-      <c r="B22" s="479" t="s">
+      <c r="B22" s="385" t="s">
         <v>619</v>
       </c>
       <c r="C22" s="78">
         <v>41165.4</v>
       </c>
-      <c r="D22" s="481"/>
+      <c r="D22" s="387"/>
       <c r="E22" s="78"/>
       <c r="F22" s="156">
         <f t="shared" si="0"/>
@@ -20711,16 +20727,16 @@
       <c r="G22" s="157"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="481">
+      <c r="A23" s="387">
         <v>44389</v>
       </c>
-      <c r="B23" s="479" t="s">
+      <c r="B23" s="385" t="s">
         <v>620</v>
       </c>
       <c r="C23" s="78">
         <v>61268.3</v>
       </c>
-      <c r="D23" s="481"/>
+      <c r="D23" s="387"/>
       <c r="E23" s="78"/>
       <c r="F23" s="156">
         <f t="shared" si="0"/>
@@ -20728,16 +20744,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="481">
+      <c r="A24" s="387">
         <v>44390</v>
       </c>
-      <c r="B24" s="479" t="s">
+      <c r="B24" s="385" t="s">
         <v>621</v>
       </c>
       <c r="C24" s="78">
         <v>81737.7</v>
       </c>
-      <c r="D24" s="481"/>
+      <c r="D24" s="387"/>
       <c r="E24" s="78"/>
       <c r="F24" s="156">
         <f t="shared" si="0"/>
@@ -20745,16 +20761,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="481">
+      <c r="A25" s="387">
         <v>44390</v>
       </c>
-      <c r="B25" s="479" t="s">
+      <c r="B25" s="385" t="s">
         <v>622</v>
       </c>
       <c r="C25" s="78">
         <v>45814.2</v>
       </c>
-      <c r="D25" s="481"/>
+      <c r="D25" s="387"/>
       <c r="E25" s="78"/>
       <c r="F25" s="156">
         <f t="shared" si="0"/>
@@ -20762,16 +20778,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="481">
+      <c r="A26" s="387">
         <v>44391</v>
       </c>
-      <c r="B26" s="479" t="s">
+      <c r="B26" s="385" t="s">
         <v>623</v>
       </c>
       <c r="C26" s="78">
         <v>178032.02</v>
       </c>
-      <c r="D26" s="481"/>
+      <c r="D26" s="387"/>
       <c r="E26" s="78"/>
       <c r="F26" s="156">
         <f t="shared" si="0"/>
@@ -20779,16 +20795,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="481">
+      <c r="A27" s="387">
         <v>44393</v>
       </c>
-      <c r="B27" s="479" t="s">
+      <c r="B27" s="385" t="s">
         <v>624</v>
       </c>
       <c r="C27" s="78">
         <v>112728.06</v>
       </c>
-      <c r="D27" s="481"/>
+      <c r="D27" s="387"/>
       <c r="E27" s="78"/>
       <c r="F27" s="156">
         <f t="shared" si="0"/>
@@ -20796,16 +20812,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="481">
+      <c r="A28" s="387">
         <v>44393</v>
       </c>
-      <c r="B28" s="479" t="s">
+      <c r="B28" s="385" t="s">
         <v>625</v>
       </c>
       <c r="C28" s="78">
         <v>68124.100000000006</v>
       </c>
-      <c r="D28" s="481">
+      <c r="D28" s="387">
         <v>44394</v>
       </c>
       <c r="E28" s="78">
@@ -20817,16 +20833,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="481">
+      <c r="A29" s="387">
         <v>44394</v>
       </c>
-      <c r="B29" s="479" t="s">
+      <c r="B29" s="385" t="s">
         <v>626</v>
       </c>
       <c r="C29" s="78">
         <v>203141.25</v>
       </c>
-      <c r="D29" s="481"/>
+      <c r="D29" s="387"/>
       <c r="E29" s="78"/>
       <c r="F29" s="156">
         <f t="shared" si="0"/>
@@ -20834,16 +20850,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="481">
+      <c r="A30" s="387">
         <v>44394</v>
       </c>
-      <c r="B30" s="479" t="s">
+      <c r="B30" s="385" t="s">
         <v>627</v>
       </c>
       <c r="C30" s="78">
         <v>1863</v>
       </c>
-      <c r="D30" s="481"/>
+      <c r="D30" s="387"/>
       <c r="E30" s="78"/>
       <c r="F30" s="156">
         <f t="shared" si="0"/>
@@ -20852,16 +20868,16 @@
       <c r="G30" s="157"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="481">
+      <c r="A31" s="387">
         <v>44394</v>
       </c>
-      <c r="B31" s="479" t="s">
+      <c r="B31" s="385" t="s">
         <v>628</v>
       </c>
       <c r="C31" s="78">
         <v>49296.6</v>
       </c>
-      <c r="D31" s="481"/>
+      <c r="D31" s="387"/>
       <c r="E31" s="78"/>
       <c r="F31" s="156">
         <f t="shared" si="0"/>
@@ -20869,16 +20885,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="481">
+      <c r="A32" s="387">
         <v>44394</v>
       </c>
-      <c r="B32" s="479" t="s">
+      <c r="B32" s="385" t="s">
         <v>629</v>
       </c>
       <c r="C32" s="78">
         <v>3888</v>
       </c>
-      <c r="D32" s="481"/>
+      <c r="D32" s="387"/>
       <c r="E32" s="78"/>
       <c r="F32" s="156">
         <f t="shared" si="0"/>
@@ -20886,16 +20902,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="481">
+      <c r="A33" s="387">
         <v>44394</v>
       </c>
-      <c r="B33" s="479" t="s">
+      <c r="B33" s="385" t="s">
         <v>630</v>
       </c>
       <c r="C33" s="78">
         <v>2142</v>
       </c>
-      <c r="D33" s="481"/>
+      <c r="D33" s="387"/>
       <c r="E33" s="78"/>
       <c r="F33" s="156">
         <f t="shared" si="0"/>
@@ -20903,16 +20919,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="481">
+      <c r="A34" s="387">
         <v>44396</v>
       </c>
-      <c r="B34" s="479" t="s">
+      <c r="B34" s="385" t="s">
         <v>631</v>
       </c>
       <c r="C34" s="78">
         <v>23409.3</v>
       </c>
-      <c r="D34" s="481"/>
+      <c r="D34" s="387"/>
       <c r="E34" s="78"/>
       <c r="F34" s="156">
         <f t="shared" si="0"/>
@@ -20920,16 +20936,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="481">
+      <c r="A35" s="387">
         <v>44396</v>
       </c>
-      <c r="B35" s="479" t="s">
+      <c r="B35" s="385" t="s">
         <v>632</v>
       </c>
       <c r="C35" s="78">
         <v>110387.4</v>
       </c>
-      <c r="D35" s="481"/>
+      <c r="D35" s="387"/>
       <c r="E35" s="78"/>
       <c r="F35" s="156">
         <f t="shared" si="0"/>
@@ -20937,16 +20953,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="481">
+      <c r="A36" s="387">
         <v>44397</v>
       </c>
-      <c r="B36" s="479" t="s">
+      <c r="B36" s="385" t="s">
         <v>633</v>
       </c>
       <c r="C36" s="78">
         <v>25164.3</v>
       </c>
-      <c r="D36" s="481"/>
+      <c r="D36" s="387"/>
       <c r="E36" s="78"/>
       <c r="F36" s="156">
         <f t="shared" si="0"/>
@@ -20954,16 +20970,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="481">
+      <c r="A37" s="387">
         <v>44397</v>
       </c>
-      <c r="B37" s="479" t="s">
+      <c r="B37" s="385" t="s">
         <v>634</v>
       </c>
       <c r="C37" s="78">
         <v>44415.9</v>
       </c>
-      <c r="D37" s="481"/>
+      <c r="D37" s="387"/>
       <c r="E37" s="78"/>
       <c r="F37" s="156">
         <f t="shared" si="0"/>
@@ -20971,16 +20987,16 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="481">
+      <c r="A38" s="387">
         <v>44397</v>
       </c>
-      <c r="B38" s="479" t="s">
+      <c r="B38" s="385" t="s">
         <v>635</v>
       </c>
       <c r="C38" s="78">
         <v>105397.15</v>
       </c>
-      <c r="D38" s="481"/>
+      <c r="D38" s="387"/>
       <c r="E38" s="78"/>
       <c r="F38" s="156">
         <f t="shared" si="0"/>
@@ -20988,16 +21004,16 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="481">
+      <c r="A39" s="387">
         <v>44399</v>
       </c>
-      <c r="B39" s="479" t="s">
+      <c r="B39" s="385" t="s">
         <v>636</v>
       </c>
       <c r="C39" s="78">
         <v>46981.2</v>
       </c>
-      <c r="D39" s="481"/>
+      <c r="D39" s="387"/>
       <c r="E39" s="78"/>
       <c r="F39" s="156">
         <f t="shared" si="0"/>
@@ -21005,16 +21021,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="481">
+      <c r="A40" s="387">
         <v>44399</v>
       </c>
-      <c r="B40" s="479" t="s">
+      <c r="B40" s="385" t="s">
         <v>637</v>
       </c>
       <c r="C40" s="78">
         <v>149792.79999999999</v>
       </c>
-      <c r="D40" s="481"/>
+      <c r="D40" s="387"/>
       <c r="E40" s="78"/>
       <c r="F40" s="156">
         <f t="shared" si="0"/>
@@ -21022,16 +21038,16 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="481">
+      <c r="A41" s="387">
         <v>44400</v>
       </c>
-      <c r="B41" s="479" t="s">
+      <c r="B41" s="385" t="s">
         <v>638</v>
       </c>
       <c r="C41" s="78">
         <v>1645.8</v>
       </c>
-      <c r="D41" s="481"/>
+      <c r="D41" s="387"/>
       <c r="E41" s="78"/>
       <c r="F41" s="156">
         <f t="shared" si="0"/>
@@ -21039,16 +21055,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="481">
+      <c r="A42" s="387">
         <v>44400</v>
       </c>
-      <c r="B42" s="479" t="s">
+      <c r="B42" s="385" t="s">
         <v>639</v>
       </c>
       <c r="C42" s="78">
         <v>48310.9</v>
       </c>
-      <c r="D42" s="481">
+      <c r="D42" s="387">
         <v>44400</v>
       </c>
       <c r="E42" s="78">
@@ -21060,16 +21076,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="481">
+      <c r="A43" s="387">
         <v>44400</v>
       </c>
-      <c r="B43" s="479" t="s">
+      <c r="B43" s="385" t="s">
         <v>640</v>
       </c>
       <c r="C43" s="78">
         <v>111997.3</v>
       </c>
-      <c r="D43" s="481"/>
+      <c r="D43" s="387"/>
       <c r="E43" s="78"/>
       <c r="F43" s="156">
         <f t="shared" si="0"/>
@@ -21077,16 +21093,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="481">
+      <c r="A44" s="387">
         <v>44400</v>
       </c>
-      <c r="B44" s="479" t="s">
+      <c r="B44" s="385" t="s">
         <v>641</v>
       </c>
       <c r="C44" s="78">
         <v>7960</v>
       </c>
-      <c r="D44" s="481"/>
+      <c r="D44" s="387"/>
       <c r="E44" s="78"/>
       <c r="F44" s="156">
         <f t="shared" si="0"/>
@@ -21094,16 +21110,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="481">
+      <c r="A45" s="387">
         <v>44401</v>
       </c>
-      <c r="B45" s="479" t="s">
+      <c r="B45" s="385" t="s">
         <v>642</v>
       </c>
       <c r="C45" s="78">
         <v>75307.06</v>
       </c>
-      <c r="D45" s="481"/>
+      <c r="D45" s="387"/>
       <c r="E45" s="78"/>
       <c r="F45" s="156">
         <f t="shared" si="0"/>
@@ -21111,16 +21127,16 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="481">
+      <c r="A46" s="387">
         <v>44401</v>
       </c>
-      <c r="B46" s="479" t="s">
+      <c r="B46" s="385" t="s">
         <v>643</v>
       </c>
       <c r="C46" s="78">
         <v>76017.600000000006</v>
       </c>
-      <c r="D46" s="481"/>
+      <c r="D46" s="387"/>
       <c r="E46" s="78"/>
       <c r="F46" s="156">
         <f t="shared" si="0"/>
@@ -21128,16 +21144,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="481">
+      <c r="A47" s="387">
         <v>44401</v>
       </c>
-      <c r="B47" s="479" t="s">
+      <c r="B47" s="385" t="s">
         <v>644</v>
       </c>
       <c r="C47" s="78">
         <v>110127.1</v>
       </c>
-      <c r="D47" s="481"/>
+      <c r="D47" s="387"/>
       <c r="E47" s="78"/>
       <c r="F47" s="156">
         <f t="shared" si="0"/>
@@ -21145,16 +21161,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="481">
+      <c r="A48" s="387">
         <v>44403</v>
       </c>
-      <c r="B48" s="479" t="s">
+      <c r="B48" s="385" t="s">
         <v>645</v>
       </c>
       <c r="C48" s="78">
         <v>87378.06</v>
       </c>
-      <c r="D48" s="481"/>
+      <c r="D48" s="387"/>
       <c r="E48" s="78"/>
       <c r="F48" s="156">
         <f t="shared" si="0"/>
@@ -21162,16 +21178,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="481">
+      <c r="A49" s="387">
         <v>44404</v>
       </c>
-      <c r="B49" s="479" t="s">
+      <c r="B49" s="385" t="s">
         <v>646</v>
       </c>
       <c r="C49" s="78">
         <v>103638.6</v>
       </c>
-      <c r="D49" s="481"/>
+      <c r="D49" s="387"/>
       <c r="E49" s="78"/>
       <c r="F49" s="156">
         <f t="shared" si="0"/>
@@ -21179,16 +21195,16 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="481">
+      <c r="A50" s="387">
         <v>44405</v>
       </c>
-      <c r="B50" s="479" t="s">
+      <c r="B50" s="385" t="s">
         <v>647</v>
       </c>
       <c r="C50" s="78">
         <v>150387.1</v>
       </c>
-      <c r="D50" s="481"/>
+      <c r="D50" s="387"/>
       <c r="E50" s="78"/>
       <c r="F50" s="156">
         <f t="shared" si="0"/>
@@ -21196,16 +21212,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="481">
+      <c r="A51" s="387">
         <v>44406</v>
       </c>
-      <c r="B51" s="479" t="s">
+      <c r="B51" s="385" t="s">
         <v>648</v>
       </c>
       <c r="C51" s="78">
         <v>23993.599999999999</v>
       </c>
-      <c r="D51" s="481">
+      <c r="D51" s="387">
         <v>44408</v>
       </c>
       <c r="E51" s="78">
@@ -21217,10 +21233,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="481"/>
-      <c r="B52" s="479"/>
+      <c r="A52" s="387"/>
+      <c r="B52" s="385"/>
       <c r="C52" s="78"/>
-      <c r="D52" s="481"/>
+      <c r="D52" s="387"/>
       <c r="E52" s="78"/>
       <c r="F52" s="156">
         <f t="shared" si="0"/>
@@ -21228,10 +21244,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="481"/>
-      <c r="B53" s="479"/>
+      <c r="A53" s="387"/>
+      <c r="B53" s="385"/>
       <c r="C53" s="78"/>
-      <c r="D53" s="481"/>
+      <c r="D53" s="387"/>
       <c r="E53" s="78"/>
       <c r="F53" s="156">
         <f t="shared" si="0"/>
@@ -21239,10 +21255,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="478"/>
-      <c r="B54" s="479"/>
+      <c r="A54" s="384"/>
+      <c r="B54" s="385"/>
       <c r="C54" s="78"/>
-      <c r="D54" s="481"/>
+      <c r="D54" s="387"/>
       <c r="E54" s="78"/>
       <c r="F54" s="156">
         <f t="shared" si="0"/>
@@ -21250,10 +21266,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="478"/>
-      <c r="B55" s="479"/>
+      <c r="A55" s="384"/>
+      <c r="B55" s="385"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="481"/>
+      <c r="D55" s="387"/>
       <c r="E55" s="78"/>
       <c r="F55" s="156">
         <f t="shared" si="0"/>
@@ -21261,10 +21277,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="478"/>
-      <c r="B56" s="479"/>
+      <c r="A56" s="384"/>
+      <c r="B56" s="385"/>
       <c r="C56" s="78"/>
-      <c r="D56" s="481"/>
+      <c r="D56" s="387"/>
       <c r="E56" s="78"/>
       <c r="F56" s="156">
         <f t="shared" si="0"/>
@@ -21272,10 +21288,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="481"/>
-      <c r="B57" s="479"/>
+      <c r="A57" s="387"/>
+      <c r="B57" s="385"/>
       <c r="C57" s="78"/>
-      <c r="D57" s="481"/>
+      <c r="D57" s="387"/>
       <c r="E57" s="78"/>
       <c r="F57" s="156">
         <f t="shared" si="0"/>
@@ -21283,10 +21299,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="481"/>
-      <c r="B58" s="479"/>
+      <c r="A58" s="387"/>
+      <c r="B58" s="385"/>
       <c r="C58" s="78"/>
-      <c r="D58" s="481"/>
+      <c r="D58" s="387"/>
       <c r="E58" s="78"/>
       <c r="F58" s="156">
         <f t="shared" si="0"/>
@@ -21294,10 +21310,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="481"/>
-      <c r="B59" s="479"/>
+      <c r="A59" s="387"/>
+      <c r="B59" s="385"/>
       <c r="C59" s="78"/>
-      <c r="D59" s="481"/>
+      <c r="D59" s="387"/>
       <c r="E59" s="78"/>
       <c r="F59" s="156">
         <f t="shared" si="0"/>
@@ -21305,10 +21321,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="478"/>
-      <c r="B60" s="479"/>
+      <c r="A60" s="384"/>
+      <c r="B60" s="385"/>
       <c r="C60" s="78"/>
-      <c r="D60" s="481"/>
+      <c r="D60" s="387"/>
       <c r="E60" s="78"/>
       <c r="F60" s="156">
         <f t="shared" si="0"/>
@@ -21316,10 +21332,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="478"/>
-      <c r="B61" s="479"/>
+      <c r="A61" s="384"/>
+      <c r="B61" s="385"/>
       <c r="C61" s="78"/>
-      <c r="D61" s="481"/>
+      <c r="D61" s="387"/>
       <c r="E61" s="78"/>
       <c r="F61" s="156">
         <f t="shared" si="0"/>
@@ -21327,10 +21343,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="478"/>
-      <c r="B62" s="479"/>
+      <c r="A62" s="384"/>
+      <c r="B62" s="385"/>
       <c r="C62" s="78"/>
-      <c r="D62" s="481"/>
+      <c r="D62" s="387"/>
       <c r="E62" s="78"/>
       <c r="F62" s="156">
         <f t="shared" si="0"/>
@@ -21338,10 +21354,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="478"/>
-      <c r="B63" s="479"/>
+      <c r="A63" s="384"/>
+      <c r="B63" s="385"/>
       <c r="C63" s="78"/>
-      <c r="D63" s="481"/>
+      <c r="D63" s="387"/>
       <c r="E63" s="78"/>
       <c r="F63" s="156">
         <f t="shared" si="0"/>
@@ -21349,10 +21365,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="478"/>
-      <c r="B64" s="479"/>
+      <c r="A64" s="384"/>
+      <c r="B64" s="385"/>
       <c r="C64" s="78"/>
-      <c r="D64" s="481"/>
+      <c r="D64" s="387"/>
       <c r="E64" s="78"/>
       <c r="F64" s="156">
         <f t="shared" si="0"/>
@@ -21360,10 +21376,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="478"/>
-      <c r="B65" s="479"/>
+      <c r="A65" s="384"/>
+      <c r="B65" s="385"/>
       <c r="C65" s="78"/>
-      <c r="D65" s="481"/>
+      <c r="D65" s="387"/>
       <c r="E65" s="78"/>
       <c r="F65" s="156">
         <f t="shared" si="0"/>
@@ -21371,10 +21387,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="478"/>
-      <c r="B66" s="479"/>
+      <c r="A66" s="384"/>
+      <c r="B66" s="385"/>
       <c r="C66" s="78"/>
-      <c r="D66" s="481"/>
+      <c r="D66" s="387"/>
       <c r="E66" s="78"/>
       <c r="F66" s="156">
         <f t="shared" si="0"/>
@@ -21382,10 +21398,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="478"/>
-      <c r="B67" s="479"/>
+      <c r="A67" s="384"/>
+      <c r="B67" s="385"/>
       <c r="C67" s="78"/>
-      <c r="D67" s="481"/>
+      <c r="D67" s="387"/>
       <c r="E67" s="78"/>
       <c r="F67" s="156">
         <f t="shared" si="0"/>
@@ -21393,10 +21409,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="478"/>
-      <c r="B68" s="479"/>
+      <c r="A68" s="384"/>
+      <c r="B68" s="385"/>
       <c r="C68" s="78"/>
-      <c r="D68" s="481"/>
+      <c r="D68" s="387"/>
       <c r="E68" s="78"/>
       <c r="F68" s="156">
         <f t="shared" si="0"/>
@@ -21404,10 +21420,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="478"/>
-      <c r="B69" s="479"/>
+      <c r="A69" s="384"/>
+      <c r="B69" s="385"/>
       <c r="C69" s="78"/>
-      <c r="D69" s="481"/>
+      <c r="D69" s="387"/>
       <c r="E69" s="78"/>
       <c r="F69" s="156">
         <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
@@ -21415,10 +21431,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="478"/>
-      <c r="B70" s="479"/>
+      <c r="A70" s="384"/>
+      <c r="B70" s="385"/>
       <c r="C70" s="78"/>
-      <c r="D70" s="481"/>
+      <c r="D70" s="387"/>
       <c r="E70" s="78"/>
       <c r="F70" s="156">
         <f t="shared" si="1"/>
@@ -21426,10 +21442,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="478"/>
-      <c r="B71" s="479"/>
+      <c r="A71" s="384"/>
+      <c r="B71" s="385"/>
       <c r="C71" s="78"/>
-      <c r="D71" s="481"/>
+      <c r="D71" s="387"/>
       <c r="E71" s="78"/>
       <c r="F71" s="156">
         <f t="shared" si="1"/>
@@ -21437,10 +21453,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="478"/>
-      <c r="B72" s="479"/>
+      <c r="A72" s="384"/>
+      <c r="B72" s="385"/>
       <c r="C72" s="78"/>
-      <c r="D72" s="481"/>
+      <c r="D72" s="387"/>
       <c r="E72" s="78"/>
       <c r="F72" s="156">
         <f t="shared" si="1"/>
@@ -21448,10 +21464,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="478"/>
-      <c r="B73" s="479"/>
+      <c r="A73" s="384"/>
+      <c r="B73" s="385"/>
       <c r="C73" s="78"/>
-      <c r="D73" s="481"/>
+      <c r="D73" s="387"/>
       <c r="E73" s="78"/>
       <c r="F73" s="156">
         <f t="shared" si="1"/>
@@ -21459,10 +21475,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="478"/>
-      <c r="B74" s="479"/>
+      <c r="A74" s="384"/>
+      <c r="B74" s="385"/>
       <c r="C74" s="78"/>
-      <c r="D74" s="481"/>
+      <c r="D74" s="387"/>
       <c r="E74" s="78"/>
       <c r="F74" s="156">
         <f t="shared" si="1"/>
@@ -21470,10 +21486,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="478"/>
-      <c r="B75" s="479"/>
+      <c r="A75" s="384"/>
+      <c r="B75" s="385"/>
       <c r="C75" s="78"/>
-      <c r="D75" s="481"/>
+      <c r="D75" s="387"/>
       <c r="E75" s="78"/>
       <c r="F75" s="156">
         <f t="shared" si="1"/>
@@ -21481,10 +21497,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="478"/>
-      <c r="B76" s="479"/>
+      <c r="A76" s="384"/>
+      <c r="B76" s="385"/>
       <c r="C76" s="78"/>
-      <c r="D76" s="481"/>
+      <c r="D76" s="387"/>
       <c r="E76" s="78"/>
       <c r="F76" s="156">
         <f t="shared" si="1"/>
@@ -21492,10 +21508,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="478"/>
-      <c r="B77" s="479"/>
+      <c r="A77" s="384"/>
+      <c r="B77" s="385"/>
       <c r="C77" s="78"/>
-      <c r="D77" s="481"/>
+      <c r="D77" s="387"/>
       <c r="E77" s="78"/>
       <c r="F77" s="156">
         <f t="shared" si="1"/>
@@ -21503,10 +21519,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="478"/>
-      <c r="B78" s="479"/>
+      <c r="A78" s="384"/>
+      <c r="B78" s="385"/>
       <c r="C78" s="78"/>
-      <c r="D78" s="481"/>
+      <c r="D78" s="387"/>
       <c r="E78" s="78"/>
       <c r="F78" s="156">
         <f t="shared" si="1"/>
@@ -21514,10 +21530,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="478"/>
-      <c r="B79" s="479"/>
+      <c r="A79" s="384"/>
+      <c r="B79" s="385"/>
       <c r="C79" s="78"/>
-      <c r="D79" s="481"/>
+      <c r="D79" s="387"/>
       <c r="E79" s="78"/>
       <c r="F79" s="156">
         <f t="shared" si="1"/>
@@ -21525,10 +21541,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="478"/>
-      <c r="B80" s="479"/>
+      <c r="A80" s="384"/>
+      <c r="B80" s="385"/>
       <c r="C80" s="78"/>
-      <c r="D80" s="481"/>
+      <c r="D80" s="387"/>
       <c r="E80" s="78"/>
       <c r="F80" s="156">
         <f t="shared" si="1"/>
@@ -22978,17 +22994,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="301" t="s">
+      <c r="C1" s="408" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
@@ -23005,17 +23021,17 @@
       <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="302" t="s">
+      <c r="B3" s="409" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="303"/>
+      <c r="C3" s="410"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="411"/>
       <c r="K3" s="14" t="s">
         <v>4</v>
       </c>
@@ -23035,14 +23051,14 @@
       <c r="D4" s="19">
         <v>44230</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="412" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="307" t="s">
+      <c r="F4" s="413"/>
+      <c r="H4" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="308"/>
+      <c r="I4" s="415"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
@@ -24824,28 +24840,28 @@
       <c r="A64" s="58"/>
       <c r="B64" s="115"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="325" t="s">
+      <c r="H64" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="I64" s="326"/>
+      <c r="I64" s="405"/>
       <c r="J64" s="116"/>
-      <c r="K64" s="327">
+      <c r="K64" s="406">
         <f>I62+L62</f>
         <v>264947</v>
       </c>
-      <c r="L64" s="328"/>
-      <c r="M64" s="315">
+      <c r="L64" s="407"/>
+      <c r="M64" s="394">
         <f>M62+N62</f>
         <v>2739320</v>
       </c>
-      <c r="N64" s="316"/>
+      <c r="N64" s="395"/>
       <c r="O64" s="187"/>
     </row>
     <row r="65" spans="3:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="317" t="s">
+      <c r="D65" s="396" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="317"/>
+      <c r="E65" s="396"/>
       <c r="F65" s="117">
         <f>F62-K64-C62</f>
         <v>2369814.2599999998</v>
@@ -24854,22 +24870,22 @@
       <c r="J65" s="119"/>
     </row>
     <row r="66" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="318" t="s">
+      <c r="D66" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="318"/>
+      <c r="E66" s="397"/>
       <c r="F66" s="114">
         <v>-2261593.1</v>
       </c>
-      <c r="I66" s="319" t="s">
+      <c r="I66" s="398" t="s">
         <v>63</v>
       </c>
-      <c r="J66" s="320"/>
-      <c r="K66" s="321">
+      <c r="J66" s="399"/>
+      <c r="K66" s="400">
         <f>F68+F69+F70</f>
         <v>350407.6199999997</v>
       </c>
-      <c r="L66" s="322"/>
+      <c r="L66" s="401"/>
     </row>
     <row r="67" spans="3:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="120"/>
@@ -24901,11 +24917,11 @@
         <v>65</v>
       </c>
       <c r="J68" s="127"/>
-      <c r="K68" s="323">
+      <c r="K68" s="402">
         <f>-C4</f>
         <v>-209541.1</v>
       </c>
-      <c r="L68" s="324"/>
+      <c r="L68" s="403"/>
       <c r="M68" s="128"/>
     </row>
     <row r="69" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24923,22 +24939,22 @@
       <c r="C70" s="130">
         <v>44257</v>
       </c>
-      <c r="D70" s="309" t="s">
+      <c r="D70" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="310"/>
+      <c r="E70" s="389"/>
       <c r="F70" s="131">
         <v>223014.26</v>
       </c>
-      <c r="I70" s="311" t="s">
+      <c r="I70" s="390" t="s">
         <v>69</v>
       </c>
-      <c r="J70" s="312"/>
-      <c r="K70" s="313">
+      <c r="J70" s="391"/>
+      <c r="K70" s="392">
         <f>K66+K68</f>
         <v>140866.5199999997</v>
       </c>
-      <c r="L70" s="314"/>
+      <c r="L70" s="393"/>
     </row>
     <row r="71" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C71" s="132"/>
@@ -24950,6 +24966,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="I70:J70"/>
@@ -24961,11 +24982,6 @@
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26229,17 +26245,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="301" t="s">
+      <c r="C1" s="408" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
@@ -26255,17 +26271,17 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="302" t="s">
+      <c r="B3" s="409" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="303"/>
+      <c r="C3" s="410"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="411"/>
       <c r="K3" s="14" t="s">
         <v>4</v>
       </c>
@@ -26285,14 +26301,14 @@
       <c r="D4" s="19">
         <v>44257</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="412" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="307" t="s">
+      <c r="F4" s="413"/>
+      <c r="H4" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="308"/>
+      <c r="I4" s="415"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
@@ -28131,28 +28147,28 @@
       <c r="A62" s="58"/>
       <c r="B62" s="115"/>
       <c r="C62" s="4"/>
-      <c r="H62" s="325" t="s">
+      <c r="H62" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="I62" s="326"/>
+      <c r="I62" s="405"/>
       <c r="J62" s="116"/>
-      <c r="K62" s="327">
+      <c r="K62" s="406">
         <f>I60+L60</f>
         <v>781851.32000000007</v>
       </c>
-      <c r="L62" s="328"/>
-      <c r="M62" s="315">
+      <c r="L62" s="407"/>
+      <c r="M62" s="394">
         <f>M60+N60</f>
         <v>4064802.5</v>
       </c>
-      <c r="N62" s="316"/>
+      <c r="N62" s="395"/>
       <c r="O62" s="187"/>
     </row>
     <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="317" t="s">
+      <c r="D63" s="396" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="317"/>
+      <c r="E63" s="396"/>
       <c r="F63" s="117">
         <f>F60-K62-C60</f>
         <v>3177878.1399999997</v>
@@ -28161,22 +28177,22 @@
       <c r="J63" s="119"/>
     </row>
     <row r="64" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="318" t="s">
+      <c r="D64" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="318"/>
+      <c r="E64" s="397"/>
       <c r="F64" s="114">
         <v>-3579271.89</v>
       </c>
-      <c r="I64" s="319" t="s">
+      <c r="I64" s="398" t="s">
         <v>63</v>
       </c>
-      <c r="J64" s="320"/>
-      <c r="K64" s="321">
+      <c r="J64" s="399"/>
+      <c r="K64" s="400">
         <f>F66+F67+F68</f>
         <v>-110332.85000000047</v>
       </c>
-      <c r="L64" s="322"/>
+      <c r="L64" s="401"/>
     </row>
     <row r="65" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D65" s="120"/>
@@ -28205,11 +28221,11 @@
         <v>65</v>
       </c>
       <c r="J66" s="127"/>
-      <c r="K66" s="323">
+      <c r="K66" s="402">
         <f>-C4</f>
         <v>-223014.26</v>
       </c>
-      <c r="L66" s="324"/>
+      <c r="L66" s="403"/>
       <c r="M66" s="128"/>
     </row>
     <row r="67" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28227,22 +28243,22 @@
       <c r="C68" s="130">
         <v>44291</v>
       </c>
-      <c r="D68" s="309" t="s">
+      <c r="D68" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="310"/>
+      <c r="E68" s="389"/>
       <c r="F68" s="131">
         <v>215362.9</v>
       </c>
-      <c r="I68" s="329" t="s">
+      <c r="I68" s="416" t="s">
         <v>371</v>
       </c>
-      <c r="J68" s="330"/>
-      <c r="K68" s="331">
+      <c r="J68" s="417"/>
+      <c r="K68" s="418">
         <f>K64+K66</f>
         <v>-333347.11000000045</v>
       </c>
-      <c r="L68" s="332"/>
+      <c r="L68" s="419"/>
     </row>
     <row r="69" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C69" s="132"/>
@@ -28360,11 +28376,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="I68:J68"/>
     <mergeCell ref="K68:L68"/>
@@ -28376,6 +28387,11 @@
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29800,17 +29816,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="301" t="s">
+      <c r="C1" s="408" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
@@ -29826,17 +29842,17 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="302" t="s">
+      <c r="B3" s="409" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="303"/>
+      <c r="C3" s="410"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="411"/>
       <c r="K3" s="14" t="s">
         <v>4</v>
       </c>
@@ -29856,14 +29872,14 @@
       <c r="D4" s="19">
         <v>44291</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="412" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="307" t="s">
+      <c r="F4" s="413"/>
+      <c r="H4" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="335"/>
+      <c r="I4" s="420"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
@@ -31585,28 +31601,28 @@
       <c r="A58" s="58"/>
       <c r="B58" s="115"/>
       <c r="C58" s="4"/>
-      <c r="H58" s="325" t="s">
+      <c r="H58" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="326"/>
+      <c r="I58" s="405"/>
       <c r="J58" s="116"/>
-      <c r="K58" s="327">
+      <c r="K58" s="406">
         <f>I56+L56</f>
         <v>370346.35000000003</v>
       </c>
-      <c r="L58" s="334"/>
-      <c r="M58" s="315">
+      <c r="L58" s="422"/>
+      <c r="M58" s="394">
         <f>M56+N56</f>
         <v>3537422</v>
       </c>
-      <c r="N58" s="316"/>
+      <c r="N58" s="395"/>
       <c r="O58" s="187"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D59" s="317" t="s">
+      <c r="D59" s="396" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="333"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="117">
         <f>F56-K58-C56</f>
         <v>3048717.54</v>
@@ -31615,22 +31631,22 @@
       <c r="J59" s="119"/>
     </row>
     <row r="60" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D60" s="318" t="s">
+      <c r="D60" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="318"/>
+      <c r="E60" s="397"/>
       <c r="F60" s="114">
         <v>-3102716.28</v>
       </c>
-      <c r="I60" s="319" t="s">
+      <c r="I60" s="398" t="s">
         <v>63</v>
       </c>
-      <c r="J60" s="320"/>
-      <c r="K60" s="321">
+      <c r="J60" s="399"/>
+      <c r="K60" s="400">
         <f>F62+F63+F64</f>
         <v>216465.62000000023</v>
       </c>
-      <c r="L60" s="322"/>
+      <c r="L60" s="401"/>
     </row>
     <row r="61" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D61" s="120"/>
@@ -31659,11 +31675,11 @@
         <v>65</v>
       </c>
       <c r="J62" s="127"/>
-      <c r="K62" s="323">
+      <c r="K62" s="402">
         <f>-C4</f>
         <v>-215362.9</v>
       </c>
-      <c r="L62" s="324"/>
+      <c r="L62" s="403"/>
       <c r="M62" s="128"/>
     </row>
     <row r="63" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -31681,22 +31697,22 @@
       <c r="C64" s="130">
         <v>44320</v>
       </c>
-      <c r="D64" s="309" t="s">
+      <c r="D64" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="310"/>
+      <c r="E64" s="389"/>
       <c r="F64" s="131">
         <v>249311.35999999999</v>
       </c>
-      <c r="I64" s="311" t="s">
+      <c r="I64" s="390" t="s">
         <v>69</v>
       </c>
-      <c r="J64" s="312"/>
-      <c r="K64" s="313">
+      <c r="J64" s="391"/>
+      <c r="K64" s="392">
         <f>K60+K62</f>
         <v>1102.720000000234</v>
       </c>
-      <c r="L64" s="314"/>
+      <c r="L64" s="393"/>
     </row>
     <row r="65" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C65" s="132"/>
@@ -31814,11 +31830,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="I64:J64"/>
     <mergeCell ref="K64:L64"/>
@@ -31830,6 +31841,11 @@
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="K58:L58"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32704,17 +32720,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="301" t="s">
+      <c r="C1" s="408" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
@@ -32730,17 +32746,17 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="302" t="s">
+      <c r="B3" s="409" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="303"/>
+      <c r="C3" s="410"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="H3" s="304" t="s">
+      <c r="H3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="411"/>
       <c r="K3" s="14" t="s">
         <v>4</v>
       </c>
@@ -32760,14 +32776,14 @@
       <c r="D4" s="19">
         <v>44320</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="412" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="307" t="s">
+      <c r="F4" s="413"/>
+      <c r="H4" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="308"/>
+      <c r="I4" s="415"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
@@ -34691,28 +34707,28 @@
       <c r="A64" s="58"/>
       <c r="B64" s="115"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="325" t="s">
+      <c r="H64" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="I64" s="326"/>
+      <c r="I64" s="405"/>
       <c r="J64" s="116"/>
-      <c r="K64" s="327">
+      <c r="K64" s="406">
         <f>I62+L62</f>
         <v>897527.49000000022</v>
       </c>
-      <c r="L64" s="328"/>
-      <c r="M64" s="315">
+      <c r="L64" s="407"/>
+      <c r="M64" s="394">
         <f>M62+N62</f>
         <v>4478181</v>
       </c>
-      <c r="N64" s="316"/>
+      <c r="N64" s="395"/>
       <c r="O64" s="187"/>
     </row>
     <row r="65" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="317" t="s">
+      <c r="D65" s="396" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="317"/>
+      <c r="E65" s="396"/>
       <c r="F65" s="117">
         <f>F62-K64-C62</f>
         <v>3484349.51</v>
@@ -34721,30 +34737,30 @@
       <c r="J65" s="119"/>
     </row>
     <row r="66" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="340" t="s">
+      <c r="B66" s="423" t="s">
         <v>428</v>
       </c>
-      <c r="C66" s="341"/>
-      <c r="D66" s="317" t="s">
+      <c r="C66" s="424"/>
+      <c r="D66" s="396" t="s">
         <v>429</v>
       </c>
-      <c r="E66" s="317"/>
+      <c r="E66" s="396"/>
       <c r="F66" s="114">
         <v>-3854423.8</v>
       </c>
-      <c r="I66" s="319" t="s">
+      <c r="I66" s="398" t="s">
         <v>63</v>
       </c>
-      <c r="J66" s="320"/>
-      <c r="K66" s="321">
+      <c r="J66" s="399"/>
+      <c r="K66" s="400">
         <f>F68+F69+F70</f>
         <v>-103494.5</v>
       </c>
-      <c r="L66" s="322"/>
+      <c r="L66" s="401"/>
     </row>
     <row r="67" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="342"/>
-      <c r="C67" s="343"/>
+      <c r="B67" s="425"/>
+      <c r="C67" s="426"/>
       <c r="D67" s="120"/>
       <c r="E67" s="58"/>
       <c r="F67" s="121">
@@ -34756,8 +34772,8 @@
       <c r="L67" s="125"/>
     </row>
     <row r="68" spans="2:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="344"/>
-      <c r="C68" s="345"/>
+      <c r="B68" s="427"/>
+      <c r="C68" s="428"/>
       <c r="E68" s="58" t="s">
         <v>64</v>
       </c>
@@ -34770,11 +34786,11 @@
         <v>65</v>
       </c>
       <c r="J68" s="127"/>
-      <c r="K68" s="323">
+      <c r="K68" s="402">
         <f>-C4</f>
         <v>-249311.35999999999</v>
       </c>
-      <c r="L68" s="324"/>
+      <c r="L68" s="403"/>
       <c r="M68" s="128"/>
     </row>
     <row r="69" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -34792,22 +34808,22 @@
       <c r="C70" s="130">
         <v>44353</v>
       </c>
-      <c r="D70" s="309" t="s">
+      <c r="D70" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="310"/>
+      <c r="E70" s="389"/>
       <c r="F70" s="131">
         <v>255764.39</v>
       </c>
-      <c r="I70" s="336" t="s">
+      <c r="I70" s="429" t="s">
         <v>371</v>
       </c>
-      <c r="J70" s="337"/>
-      <c r="K70" s="338">
+      <c r="J70" s="430"/>
+      <c r="K70" s="431">
         <f>K66+K68</f>
         <v>-352805.86</v>
       </c>
-      <c r="L70" s="339"/>
+      <c r="L70" s="432"/>
     </row>
     <row r="71" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C71" s="132"/>
@@ -34925,16 +34941,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B66:C68"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="K70:L70"/>
@@ -34942,6 +34948,16 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B66:C68"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="0.43307086614173229" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
